--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,230 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2725000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2508000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2782000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2588000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2769000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2670000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2887000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2628000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2830000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2581000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2620000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2363000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2676000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2726000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2096000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1937000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2115000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2003000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2128000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2068000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2201000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2032000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2163000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3948000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3974000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3636000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4002000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2072000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>571000</v>
+      </c>
+      <c r="F10" s="3">
         <v>667000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>585000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>641000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>602000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>686000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>596000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>667000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>654000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,8 +905,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +951,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,52 +1001,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F14" s="3">
         <v>27000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>85000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>43000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>74000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>17000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>35000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>22000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>21000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>20000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>48000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1101,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1122,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2645000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2434000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2674000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2603000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2745000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2661000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2782000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2580000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2753000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2526000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2515000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2322000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2552000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2668000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F18" s="3">
         <v>108000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-15000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>24000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>105000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>48000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>77000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>55000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>105000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>41000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>124000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>58000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,228 +1242,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>8000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>11000</v>
       </c>
       <c r="I20" s="3">
         <v>11000</v>
       </c>
       <c r="J20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>10000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>145000</v>
+      </c>
+      <c r="F21" s="3">
         <v>167000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>45000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>81000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>70000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>160000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>110000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>131000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>107000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>150000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>88000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>174000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>104000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F22" s="3">
         <v>22000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>23000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>23000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>30000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>31000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>31000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>29000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>23000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>13000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>14000</v>
       </c>
       <c r="N22" s="3">
         <v>13000</v>
       </c>
       <c r="O22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>17000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F23" s="3">
         <v>93000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-31000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>9000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-10000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>85000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>28000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>55000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>41000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>100000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>35000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>121000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>46000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F24" s="3">
         <v>33000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>25000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>22000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>158000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>14000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>47000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-9000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F26" s="3">
         <v>60000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-24000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>8000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>60000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>19000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>33000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-117000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>98000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>74000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>55000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F27" s="3">
         <v>60000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-24000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>8000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-14000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>60000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>33000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-117000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>98000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>21000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>74000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>55000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,13 +1688,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1594,31 +1715,37 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>8000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>65000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-12000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>6000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>84000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>174000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1838,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-11000</v>
       </c>
       <c r="I32" s="3">
         <v>-11000</v>
       </c>
       <c r="J32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-10000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F33" s="3">
         <v>60000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-24000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>8000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-14000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>60000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>16000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>41000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-52000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>86000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>27000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>158000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>229000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F35" s="3">
         <v>60000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-24000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>8000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-14000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>60000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>16000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>41000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-52000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>86000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>27000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>158000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>229000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,52 +2137,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>842000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>698000</v>
+      </c>
+      <c r="F41" s="3">
         <v>588000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>444000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>604000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>658000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>925000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>747000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>737000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>622000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>788000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>763000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>744000</v>
       </c>
       <c r="O41" s="3">
         <v>763000</v>
       </c>
       <c r="P41" s="3">
+        <v>744000</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>763000</v>
+      </c>
+      <c r="R41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,189 +2233,219 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>850000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1642000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1744000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1732000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1780000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>885000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>950000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>905000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>942000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>931000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>693000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>652000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>688000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>687000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>929000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1025000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1113000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1034000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1065000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1023000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1122000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1033000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1093000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1110000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1228000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1179000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1279000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F45" s="3">
         <v>103000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>84000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>75000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>112000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>142000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>216000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>225000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>241000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>269000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>313000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>244000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3447000</v>
+      </c>
+      <c r="F46" s="3">
         <v>3460000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3389000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3502000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2683000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3010000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2916000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2928000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2871000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2832000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2912000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2924000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2973000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -2245,125 +2454,143 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>842000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>847000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>853000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>858000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>863000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>869000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>874000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>879000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>885000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2019000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2092000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2073000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2106000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2128000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>763000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>744000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>722000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>713000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>725000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>627000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>580000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>586000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>601000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>601000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1319000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1333000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1345000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1331000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1336000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1342000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1319000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1330000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1299000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>413000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>395000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>395000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>396000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,52 +2683,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>440000</v>
+      </c>
+      <c r="F52" s="3">
         <v>477000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>513000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>510000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>542000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>529000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>549000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>561000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>565000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>656000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>651000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>651000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>685000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2783,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6454000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7311000</v>
+      </c>
+      <c r="F54" s="3">
         <v>7343000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7353000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7471000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6166000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6472000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6359000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6390000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6323000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5397000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5412000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5435000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5540000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,272 +2877,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1026000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1037000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1089000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1098000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1110000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1085000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1066000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>969000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>892000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>889000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>873000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>835000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>893000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>841000</v>
+      </c>
+      <c r="F58" s="3">
         <v>842000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>837000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>841000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>95000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>92000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>97000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>93000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>96000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>17000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>28000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>28000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>29000</v>
       </c>
       <c r="P58" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>29000</v>
+      </c>
+      <c r="R58" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1235000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1227000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1277000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1255000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1294000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>980000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1051000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>957000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1044000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1058000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>952000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>926000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>983000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1109000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2345000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3094000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3156000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3181000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3233000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2185000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2228000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2120000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2106000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2046000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1858000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1827000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1846000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2031000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>548000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>575000</v>
+      </c>
+      <c r="F61" s="3">
         <v>593000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>618000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>632000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1444000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1646000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1668000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1688000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1712000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1046000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1134000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1145000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1156000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1426000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1469000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1467000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1472000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1500000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>411000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>401000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>415000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>421000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>427000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>451000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>476000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>490000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>501000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4319000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5138000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5216000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5271000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5365000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4040000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4275000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4203000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>4233000</v>
       </c>
       <c r="K66" s="3">
         <v>4203000</v>
       </c>
       <c r="L66" s="3">
+        <v>4233000</v>
+      </c>
+      <c r="M66" s="3">
+        <v>4203000</v>
+      </c>
+      <c r="N66" s="3">
         <v>3355000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3437000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3481000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3688000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3493,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-144000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-204000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-180000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-173000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-160000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-220000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-236000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-273000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-221000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-314000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-338000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-453000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2135000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2173000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2127000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2082000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2106000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2126000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2197000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2156000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2157000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2120000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2042000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1975000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1954000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1852000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F81" s="3">
         <v>60000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-24000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>8000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-14000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>60000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>16000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>41000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-52000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>86000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>27000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>158000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>229000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,52 +4022,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F83" s="3">
         <v>52000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>53000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>49000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>50000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>44000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>47000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>51000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>43000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>37000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>39000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>40000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>41000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>152000</v>
+      </c>
+      <c r="F89" s="3">
         <v>212000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-58000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>60000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>61000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>304000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>45000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>217000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>40000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>282000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>34000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>102000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>36000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4392,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-32000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-45000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-46000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-66000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-47000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-37000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-37000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>13000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-25000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-30000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>31000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>776000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-29000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-61000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-52000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-68000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-76000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-36000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-899000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-154000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>23000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-71000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-93000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,16 +4612,18 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-13000</v>
       </c>
       <c r="F96" s="3">
         <v>-14000</v>
@@ -4168,7 +4635,7 @@
         <v>-14000</v>
       </c>
       <c r="I96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="J96" s="3">
         <v>-14000</v>
@@ -4177,10 +4644,10 @@
         <v>-14000</v>
       </c>
       <c r="L96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="M96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="N96" s="3">
         <v>-13000</v>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,96 +4808,114 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-808000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-38000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-43000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-64000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-255000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-52000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-66000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-41000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>672000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-127000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-42000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-38000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-69000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>-12000</v>
       </c>
       <c r="E101" s="3">
         <v>2000</v>
       </c>
       <c r="F101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4420,39 +4923,45 @@
         <v>144000</v>
       </c>
       <c r="E102" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>144000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-160000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-54000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-267000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>177000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-27000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>138000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-188000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>18000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-5000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-136000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2158000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2725000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2508000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2782000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2588000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2769000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2670000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2887000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2628000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2830000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2581000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2620000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2363000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2676000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2726000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1742000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2096000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1937000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2115000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2003000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2128000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2068000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2201000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2032000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2163000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3948000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3974000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3636000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4002000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2072000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E10" s="3">
         <v>629000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>571000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>667000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>585000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>641000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>602000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>686000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>596000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>667000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>654000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,58 +1024,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E14" s="3">
         <v>28000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>17000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>85000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>43000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>74000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>14000</v>
       </c>
       <c r="K14" s="3">
         <v>14000</v>
       </c>
       <c r="L14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M14" s="3">
         <v>17000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>35000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>21000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>20000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>48000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2626000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2645000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2434000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2674000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2603000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2745000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2661000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2782000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2580000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2753000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2526000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2515000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2322000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2552000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2668000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-468000</v>
+      </c>
+      <c r="E18" s="3">
         <v>80000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>74000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>108000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>105000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>48000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>77000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>55000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>105000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>41000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>124000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,19 +1287,19 @@
         <v>4000</v>
       </c>
       <c r="E20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F20" s="3">
         <v>21000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>7000</v>
       </c>
       <c r="G20" s="3">
         <v>7000</v>
       </c>
       <c r="H20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I20" s="3">
         <v>8000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>11000</v>
       </c>
       <c r="J20" s="3">
         <v>11000</v>
@@ -1274,228 +1308,243 @@
         <v>11000</v>
       </c>
       <c r="L20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>8000</v>
       </c>
       <c r="O20" s="3">
         <v>8000</v>
       </c>
       <c r="P20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>10000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="E21" s="3">
         <v>133000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>145000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>167000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>45000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>81000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>70000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>160000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>131000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>107000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>150000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>88000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>174000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>104000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E22" s="3">
         <v>18000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>22000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>23000</v>
       </c>
       <c r="H22" s="3">
         <v>23000</v>
       </c>
       <c r="I22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J22" s="3">
         <v>30000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>31000</v>
       </c>
       <c r="K22" s="3">
         <v>31000</v>
       </c>
       <c r="L22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="M22" s="3">
         <v>29000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-475000</v>
+      </c>
+      <c r="E23" s="3">
         <v>66000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>74000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>93000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>85000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>41000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>121000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>46000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E24" s="3">
         <v>21000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>33000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>158000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>47000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E26" s="3">
         <v>45000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>55000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>60000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>60000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>33000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-117000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>98000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>74000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>55000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E27" s="3">
         <v>45000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>55000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>60000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-24000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>60000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>33000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-117000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>98000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>21000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>74000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>55000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,16 +1752,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1721,31 +1782,34 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-3000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>8000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>65000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-12000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>6000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>84000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>174000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1853,19 +1923,19 @@
         <v>-4000</v>
       </c>
       <c r="E32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-7000</v>
       </c>
       <c r="G32" s="3">
         <v>-7000</v>
       </c>
       <c r="H32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-11000</v>
       </c>
       <c r="J32" s="3">
         <v>-11000</v>
@@ -1874,78 +1944,84 @@
         <v>-11000</v>
       </c>
       <c r="L32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-8000</v>
       </c>
       <c r="O32" s="3">
         <v>-8000</v>
       </c>
       <c r="P32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E33" s="3">
         <v>45000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>55000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>60000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-24000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>60000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-52000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>86000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>158000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>229000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E35" s="3">
         <v>45000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>55000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>60000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-24000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>60000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-52000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>86000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>158000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>229000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E41" s="3">
         <v>842000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>698000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>588000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>444000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>604000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>658000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>925000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>747000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>737000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>622000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>788000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>763000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>744000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>763000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,217 +2329,232 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E43" s="3">
         <v>850000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1642000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1744000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1732000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1780000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>885000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>950000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>905000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>942000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>931000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>693000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>652000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>688000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>687000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1005000</v>
+      </c>
+      <c r="E44" s="3">
         <v>929000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1032000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1025000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1113000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1034000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1065000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1023000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1122000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1033000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1093000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1110000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1228000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1179000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1279000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E45" s="3">
         <v>79000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>75000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>103000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>84000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>75000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>112000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>142000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>216000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>225000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>241000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>269000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>313000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>244000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2525000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2700000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3447000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3460000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3389000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3502000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2683000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3010000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2916000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2928000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2871000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2832000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2912000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2924000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2973000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
@@ -2460,137 +2565,146 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>842000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>847000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>853000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>858000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>863000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>869000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>874000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>879000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>885000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1884000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2019000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2092000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2073000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2106000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2128000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>763000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>744000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>722000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>713000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>725000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>627000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>580000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>586000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>601000</v>
       </c>
       <c r="R48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>956000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1319000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1332000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1333000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1345000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1331000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1336000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1342000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1319000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1330000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1299000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>413000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>395000</v>
       </c>
       <c r="P49" s="3">
         <v>395000</v>
       </c>
       <c r="Q49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="R49" s="3">
         <v>396000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E52" s="3">
         <v>416000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>440000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>477000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>513000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>510000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>542000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>529000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>549000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>561000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>565000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>656000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>651000</v>
       </c>
       <c r="P52" s="3">
         <v>651000</v>
       </c>
       <c r="Q52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="R52" s="3">
         <v>685000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5865000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6454000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7311000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7343000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7353000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7471000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6166000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6472000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6359000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6390000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6323000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5397000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5412000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5435000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5540000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,308 +3009,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>991000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1006000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1026000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1037000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1089000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1098000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1110000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1085000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1066000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>969000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>892000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>889000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>873000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>835000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>893000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E58" s="3">
         <v>104000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>841000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>842000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>837000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>841000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>95000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>92000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>97000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>93000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>96000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>28000</v>
       </c>
       <c r="P58" s="3">
         <v>28000</v>
       </c>
       <c r="Q58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="R58" s="3">
         <v>29000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1114000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1235000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1227000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1277000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1255000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1294000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>980000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1051000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>957000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1044000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1058000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>952000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>926000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>983000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1109000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2135000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2345000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3094000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3156000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3181000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3233000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2185000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2228000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2120000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2106000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2046000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1858000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1827000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1846000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2031000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E61" s="3">
         <v>548000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>575000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>593000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>618000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>632000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1444000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1646000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1668000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1688000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1712000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1046000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1134000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1145000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1156000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1371000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1426000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1469000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1467000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1472000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>411000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>401000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>415000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>421000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>427000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>451000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>476000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>490000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>501000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4148000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4319000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5138000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5216000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5271000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5365000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4040000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4275000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4203000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4233000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4203000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3355000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3437000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3481000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3688000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-484000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-89000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-144000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-204000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-180000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-173000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-160000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-220000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-236000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-273000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-221000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-314000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-338000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-453000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1717000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2135000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2173000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2127000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2082000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2106000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2126000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2197000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2156000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2157000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2120000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2042000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1975000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1954000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1852000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E81" s="3">
         <v>45000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>55000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>60000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-24000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>60000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-52000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>86000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>158000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>229000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E83" s="3">
         <v>49000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>52000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>53000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>51000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>37000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E89" s="3">
         <v>188000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>152000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>212000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-58000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>60000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>61000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>304000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>45000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>217000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>282000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>34000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>102000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-46000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-66000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-37000</v>
       </c>
       <c r="L91" s="3">
         <v>-37000</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>13000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>31000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>776000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>23000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-61000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-52000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-68000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-76000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-899000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-154000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>23000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-93000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,31 +4847,32 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-14000</v>
       </c>
       <c r="F96" s="3">
         <v>-14000</v>
       </c>
       <c r="G96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-13000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-14000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-14000</v>
       </c>
       <c r="K96" s="3">
         <v>-14000</v>
@@ -4650,7 +4884,7 @@
         <v>-14000</v>
       </c>
       <c r="N96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="O96" s="3">
         <v>-13000</v>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-808000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-67000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-38000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-43000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-64000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-255000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-52000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-66000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-41000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>672000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-127000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-42000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-69000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>2000</v>
       </c>
       <c r="H101" s="3">
         <v>2000</v>
       </c>
       <c r="I101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>3000</v>
       </c>
       <c r="O101" s="3">
         <v>3000</v>
       </c>
       <c r="P101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E102" s="3">
         <v>144000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>110000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>144000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-160000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-54000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-267000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>177000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-27000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>138000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-188000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-136000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2539000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2158000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2725000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2508000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2782000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2588000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2769000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2670000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2887000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2628000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2830000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2581000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2620000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2363000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2676000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2726000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1949000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1742000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2096000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1937000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2115000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2003000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2128000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2068000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2201000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2032000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2163000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3948000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3974000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3636000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4002000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2072000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E10" s="3">
         <v>416000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>629000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>571000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>667000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>585000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>641000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>602000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>686000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>596000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>667000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>654000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,61 +1044,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E14" s="3">
         <v>478000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>28000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>17000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>85000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>43000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>74000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>14000</v>
       </c>
       <c r="L14" s="3">
         <v>14000</v>
       </c>
       <c r="M14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N14" s="3">
         <v>17000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>35000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>21000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>20000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>48000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2437000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2626000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2645000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2434000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2674000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2603000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2745000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2661000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2782000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2580000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2753000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2526000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2515000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2322000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2552000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2668000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-468000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>80000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>74000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>108000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>105000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>48000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>77000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>55000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>105000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>41000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>124000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>58000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,31 +1311,32 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
         <v>4000</v>
       </c>
       <c r="F20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G20" s="3">
         <v>21000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>7000</v>
       </c>
       <c r="H20" s="3">
         <v>7000</v>
       </c>
       <c r="I20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J20" s="3">
         <v>8000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>11000</v>
       </c>
       <c r="K20" s="3">
         <v>11000</v>
@@ -1311,240 +1345,255 @@
         <v>11000</v>
       </c>
       <c r="M20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>8000</v>
       </c>
       <c r="P20" s="3">
         <v>8000</v>
       </c>
       <c r="Q20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R20" s="3">
         <v>10000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-416000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>133000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>145000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>167000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>45000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>81000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>70000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>160000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>110000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>131000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>107000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>150000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>88000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>174000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>104000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="3">
         <v>11000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>22000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>23000</v>
       </c>
       <c r="I22" s="3">
         <v>23000</v>
       </c>
       <c r="J22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K22" s="3">
         <v>30000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>31000</v>
       </c>
       <c r="L22" s="3">
         <v>31000</v>
       </c>
       <c r="M22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="N22" s="3">
         <v>29000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-475000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>66000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>74000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>93000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-31000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>85000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>55000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>41000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>121000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>46000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-36000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>33000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>158000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>47000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-439000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>45000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>55000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>60000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>33000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-117000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>98000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>74000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>55000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-439000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>45000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>55000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>60000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>33000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-117000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>98000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>74000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>55000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1766,8 +1827,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1785,31 +1846,34 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>8000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>65000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-12000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>6000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>84000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>174000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,31 +1981,34 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4000</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
         <v>-4000</v>
       </c>
       <c r="F32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-7000</v>
       </c>
       <c r="H32" s="3">
         <v>-7000</v>
       </c>
       <c r="I32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-11000</v>
       </c>
       <c r="K32" s="3">
         <v>-11000</v>
@@ -1947,81 +2017,87 @@
         <v>-11000</v>
       </c>
       <c r="M32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-8000</v>
       </c>
       <c r="P32" s="3">
         <v>-8000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-10000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-439000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>45000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>55000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>60000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>41000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-52000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>86000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>158000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>229000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-439000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>45000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>55000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>60000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>41000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-52000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>86000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>158000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>229000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>743000</v>
+      </c>
+      <c r="E41" s="3">
         <v>762000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>842000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>698000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>588000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>444000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>604000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>658000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>925000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>747000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>737000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>622000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>788000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>763000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>744000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>763000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,232 +2422,247 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E43" s="3">
         <v>698000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>850000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1642000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1744000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1732000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1780000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>885000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>950000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>905000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>942000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>931000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>693000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>652000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>688000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>687000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1005000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>929000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1032000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1025000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1113000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1034000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1065000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1023000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1122000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1033000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1093000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1110000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1228000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1179000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1279000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E45" s="3">
         <v>60000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>79000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>75000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>103000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>84000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>75000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>112000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>142000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>216000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>225000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>241000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>269000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>313000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>244000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2480000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2525000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2700000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3447000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3460000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3389000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3502000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2683000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3010000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2916000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2928000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2871000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2832000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2912000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2924000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2973000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E47" s="3">
         <v>17000</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
@@ -2568,143 +2673,152 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>842000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>847000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>853000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>858000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>863000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>869000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>874000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>879000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>885000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1811000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1884000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2019000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2092000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2073000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2106000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2128000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>763000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>744000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>722000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>713000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>725000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>627000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>580000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>586000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>601000</v>
       </c>
       <c r="S48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>965000</v>
+      </c>
+      <c r="E49" s="3">
         <v>956000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1319000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1332000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1333000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1345000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1331000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1336000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1342000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1319000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1330000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1299000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>413000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>395000</v>
       </c>
       <c r="Q49" s="3">
         <v>395000</v>
       </c>
       <c r="R49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="S49" s="3">
         <v>396000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E52" s="3">
         <v>483000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>416000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>440000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>477000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>513000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>510000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>542000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>529000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>549000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>561000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>565000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>656000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>651000</v>
       </c>
       <c r="Q52" s="3">
         <v>651000</v>
       </c>
       <c r="R52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="S52" s="3">
         <v>685000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5745000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5865000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6454000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7311000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7343000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7353000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7471000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6166000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6472000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6359000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6390000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6323000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5397000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5412000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5435000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5540000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,326 +3140,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1038000</v>
+      </c>
+      <c r="E57" s="3">
         <v>991000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1006000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1026000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1037000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1089000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1098000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1110000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1085000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1066000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>969000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>892000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>889000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>873000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>835000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>893000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E58" s="3">
         <v>30000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>104000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>841000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>842000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>837000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>841000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>95000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>92000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>97000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>93000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>96000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>28000</v>
       </c>
       <c r="Q58" s="3">
         <v>28000</v>
       </c>
       <c r="R58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="S58" s="3">
         <v>29000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1228000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1114000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1235000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1227000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1277000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1255000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1294000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>980000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1051000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>957000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1044000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1058000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>952000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>926000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>983000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1109000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2287000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2135000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2345000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3094000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3156000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3181000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3233000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2185000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2228000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2120000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2106000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2046000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1858000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1827000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1846000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2031000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E61" s="3">
         <v>642000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>548000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>575000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>593000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>618000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>632000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1444000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1646000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1668000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1688000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1712000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1046000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1134000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1145000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1156000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1309000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1371000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1426000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1469000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1467000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1472000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1500000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>411000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>401000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>415000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>421000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>427000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>451000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>476000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>490000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>501000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3950000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4148000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4319000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5138000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5216000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5271000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5365000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4040000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4275000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4203000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4233000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4203000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3355000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3437000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3481000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3688000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-427000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-484000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-89000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-144000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-204000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-180000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-173000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-160000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-220000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-236000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-273000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-221000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-338000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-453000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1795000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1717000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2135000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2173000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2127000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2082000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2106000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2126000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2197000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2156000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2157000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2120000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2042000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1975000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1954000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1852000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-439000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>45000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>55000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>60000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>41000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-52000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>86000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>158000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>229000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E83" s="3">
         <v>48000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>50000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>52000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>53000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>50000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>51000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>37000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>41000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>188000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>152000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>212000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-58000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>60000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>61000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>304000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>45000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>217000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>282000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>34000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>102000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-66000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-37000</v>
       </c>
       <c r="M91" s="3">
         <v>-37000</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>13000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>31000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>776000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>23000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-61000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-68000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-76000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-899000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-154000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>23000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-71000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-93000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4857,25 +5091,25 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-14000</v>
       </c>
       <c r="G96" s="3">
         <v>-14000</v>
       </c>
       <c r="H96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-13000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-14000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-14000</v>
       </c>
       <c r="L96" s="3">
         <v>-14000</v>
@@ -4887,7 +5121,7 @@
         <v>-14000</v>
       </c>
       <c r="O96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="P96" s="3">
         <v>-13000</v>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5303,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-316000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-64000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-808000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-67000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-38000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-43000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-64000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-255000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-52000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-66000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-41000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>672000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-127000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-38000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-69000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>2000</v>
       </c>
       <c r="I101" s="3">
         <v>2000</v>
       </c>
       <c r="J101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>3000</v>
       </c>
       <c r="P101" s="3">
         <v>3000</v>
       </c>
       <c r="Q101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R101" s="3">
         <v>2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-80000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>144000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>110000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>144000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-160000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-54000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-267000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>177000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-27000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>138000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-188000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-136000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2288000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2539000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2158000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2725000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2508000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2782000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2588000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2769000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2670000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2887000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2628000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2830000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2581000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2620000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2363000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2676000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2726000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1949000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1742000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2096000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1937000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2115000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2003000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2128000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2068000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2201000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2032000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2163000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3948000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3974000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3636000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4002000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2072000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>497000</v>
+      </c>
+      <c r="E10" s="3">
         <v>590000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>416000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>629000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>571000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>667000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>585000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>641000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>602000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>686000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>596000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>667000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>654000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,64 +1063,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E14" s="3">
         <v>36000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>478000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>28000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>17000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>85000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>43000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>74000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>14000</v>
       </c>
       <c r="M14" s="3">
         <v>14000</v>
       </c>
       <c r="N14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="O14" s="3">
         <v>17000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>35000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>21000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>20000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>48000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2267000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2437000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2626000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2645000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2434000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2674000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2603000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2745000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2661000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2782000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2580000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2753000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2526000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2515000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2322000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2552000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2668000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E18" s="3">
         <v>102000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-468000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>80000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>74000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>108000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>105000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>48000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>77000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>55000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>105000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>41000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>124000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>58000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,34 +1344,35 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4000</v>
       </c>
       <c r="F20" s="3">
         <v>4000</v>
       </c>
       <c r="G20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H20" s="3">
         <v>21000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>7000</v>
       </c>
       <c r="I20" s="3">
         <v>7000</v>
       </c>
       <c r="J20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K20" s="3">
         <v>8000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>11000</v>
       </c>
       <c r="L20" s="3">
         <v>11000</v>
@@ -1348,252 +1381,267 @@
         <v>11000</v>
       </c>
       <c r="N20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>8000</v>
       </c>
       <c r="Q20" s="3">
         <v>8000</v>
       </c>
       <c r="R20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="S20" s="3">
         <v>10000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E21" s="3">
         <v>151000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-416000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>133000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>145000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>167000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>45000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>81000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>70000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>160000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>110000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>131000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>107000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>150000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>88000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>174000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>104000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E22" s="3">
         <v>6000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>18000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>21000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>22000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>23000</v>
       </c>
       <c r="J22" s="3">
         <v>23000</v>
       </c>
       <c r="K22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="L22" s="3">
         <v>30000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>31000</v>
       </c>
       <c r="M22" s="3">
         <v>31000</v>
       </c>
       <c r="N22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="O22" s="3">
         <v>29000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E23" s="3">
         <v>99000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-475000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>66000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>74000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>93000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-31000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>85000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>55000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>41000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>35000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>121000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>46000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>42000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-36000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>19000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>33000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>158000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>47000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-9000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E26" s="3">
         <v>57000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-439000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>45000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>55000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>60000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>33000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-117000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>98000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>74000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>55000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E27" s="3">
         <v>57000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-439000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>45000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>55000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>60000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-24000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>33000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-117000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>98000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>74000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>55000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,13 +1873,16 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1830,8 +1890,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1849,31 +1909,34 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>8000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>65000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>6000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>84000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>174000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,34 +2050,37 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-4000</v>
       </c>
       <c r="F32" s="3">
         <v>-4000</v>
       </c>
       <c r="G32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-7000</v>
       </c>
       <c r="I32" s="3">
         <v>-7000</v>
       </c>
       <c r="J32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-11000</v>
       </c>
       <c r="L32" s="3">
         <v>-11000</v>
@@ -2020,84 +2089,90 @@
         <v>-11000</v>
       </c>
       <c r="N32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-8000</v>
       </c>
       <c r="Q32" s="3">
         <v>-8000</v>
       </c>
       <c r="R32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-10000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E33" s="3">
         <v>57000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-439000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>45000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>55000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>60000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-24000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>41000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-52000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>86000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>158000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>229000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E35" s="3">
         <v>57000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-439000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>45000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>55000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>60000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-24000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>41000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-52000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>86000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>158000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>229000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>729000</v>
+      </c>
+      <c r="E41" s="3">
         <v>743000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>762000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>842000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>698000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>588000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>444000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>604000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>658000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>925000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>747000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>737000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>622000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>788000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>763000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>744000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>763000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,247 +2514,262 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1132000</v>
+      </c>
+      <c r="E43" s="3">
         <v>678000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>698000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>850000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1642000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1744000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1732000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1780000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>885000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>950000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>905000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>942000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>931000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>693000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>652000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>688000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>687000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1005000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>929000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1032000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1025000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1113000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1034000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1065000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1023000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1122000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1033000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1093000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1110000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1228000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1179000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1279000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
         <v>59000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>60000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>79000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>75000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>103000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>84000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>75000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>112000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>142000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>216000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>225000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>241000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>269000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>313000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>244000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2355000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2480000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2525000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2700000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3447000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3460000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3389000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3502000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2683000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3010000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2916000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2928000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2871000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2832000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2912000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2924000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2973000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E47" s="3">
         <v>14000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17000</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
@@ -2676,149 +2780,158 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>842000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>847000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>853000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>858000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>863000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>869000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>874000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>879000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>885000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1746000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1811000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1884000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2019000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2092000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2073000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2106000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2128000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>763000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>744000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>722000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>713000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>725000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>627000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>580000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>586000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>601000</v>
       </c>
       <c r="T48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>966000</v>
+      </c>
+      <c r="E49" s="3">
         <v>965000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>956000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1319000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1332000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1333000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1345000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1331000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1336000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1342000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1319000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1330000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1299000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>413000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>395000</v>
       </c>
       <c r="R49" s="3">
         <v>395000</v>
       </c>
       <c r="S49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="T49" s="3">
         <v>396000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E52" s="3">
         <v>475000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>483000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>416000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>440000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>477000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>513000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>510000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>542000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>529000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>549000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>561000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>565000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>656000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>651000</v>
       </c>
       <c r="R52" s="3">
         <v>651000</v>
       </c>
       <c r="S52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="T52" s="3">
         <v>685000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5558000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5745000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5865000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6454000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7311000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7343000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7353000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7471000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6166000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6472000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6359000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6390000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6323000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5397000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5412000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5435000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5540000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,232 +3270,245 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>919000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1038000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>991000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1006000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1026000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1037000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1089000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1098000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1110000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1085000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1066000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>969000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>892000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>889000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>873000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>835000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>893000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E58" s="3">
         <v>21000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>30000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>104000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>841000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>842000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>837000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>841000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>95000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>92000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>97000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>93000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>96000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>28000</v>
       </c>
       <c r="R58" s="3">
         <v>28000</v>
       </c>
       <c r="S58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="T58" s="3">
         <v>29000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1150000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1228000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1114000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1235000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1227000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1277000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1255000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1294000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>980000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1051000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>957000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1044000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1058000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>952000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>926000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>983000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1109000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2093000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2287000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2135000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2345000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3094000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3156000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3181000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3233000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2185000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2228000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2120000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2106000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2046000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1858000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1827000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1846000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2031000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3374,111 +3516,117 @@
         <v>354000</v>
       </c>
       <c r="E61" s="3">
+        <v>354000</v>
+      </c>
+      <c r="F61" s="3">
         <v>642000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>548000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>575000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>593000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>618000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>632000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1444000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1646000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1668000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1688000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1712000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1134000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1145000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1156000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1309000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1371000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1426000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1469000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1467000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1472000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1500000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>411000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>401000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>415000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>421000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>427000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>451000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>476000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>490000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>501000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3678000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3950000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4148000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4319000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5138000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5216000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5271000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5365000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4040000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4275000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4203000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4233000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4203000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3355000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3437000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3481000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3688000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-409000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-427000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-484000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-89000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-144000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-204000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-180000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-173000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-160000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-220000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-236000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-273000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-221000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-314000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-338000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-453000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1880000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1795000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1717000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2135000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2173000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2127000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2082000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2106000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2126000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2197000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2156000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2157000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2120000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2042000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1975000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1954000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1852000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E81" s="3">
         <v>57000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-439000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>45000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>55000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>60000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-24000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>41000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-52000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>86000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>158000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>229000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4619,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4431,55 +4629,58 @@
         <v>46000</v>
       </c>
       <c r="E83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F83" s="3">
         <v>48000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>50000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>52000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>53000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>50000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>44000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>51000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>40000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>41000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
         <v>309000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>188000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>152000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>212000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-58000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>60000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>61000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>304000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>45000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>217000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>282000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>34000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>102000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5055,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4845,55 +5065,58 @@
         <v>-14000</v>
       </c>
       <c r="E91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-45000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-37000</v>
       </c>
       <c r="N91" s="3">
         <v>-37000</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>31000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>776000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>23000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-61000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-52000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-76000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-36000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-899000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-154000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>23000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-71000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-93000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5094,25 +5327,25 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-14000</v>
       </c>
       <c r="H96" s="3">
         <v>-14000</v>
       </c>
       <c r="I96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-13000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-14000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-14000</v>
       </c>
       <c r="M96" s="3">
         <v>-14000</v>
@@ -5124,7 +5357,7 @@
         <v>-14000</v>
       </c>
       <c r="P96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="Q96" s="3">
         <v>-13000</v>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5548,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-316000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-64000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-808000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-67000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-38000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-43000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-64000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-255000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-52000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-66000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-41000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>672000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-127000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-42000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-38000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-69000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2000</v>
       </c>
       <c r="J101" s="3">
         <v>2000</v>
       </c>
       <c r="K101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>3000</v>
       </c>
       <c r="Q101" s="3">
         <v>3000</v>
       </c>
       <c r="R101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-80000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>144000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>110000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>144000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-160000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-54000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-267000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>177000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-27000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>138000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-188000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-136000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2366000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2288000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2539000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2158000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2725000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2508000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2782000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2588000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2769000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2670000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2887000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2628000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2830000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2581000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2620000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2363000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2676000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2726000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1832000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1791000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1949000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1742000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2096000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1937000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2115000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2003000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2128000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2068000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2201000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2032000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2163000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3948000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3974000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3636000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4002000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2072000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E10" s="3">
         <v>497000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>590000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>416000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>629000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>571000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>667000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>585000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>641000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>602000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>686000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>596000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>667000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>654000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,67 +1083,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E14" s="3">
         <v>22000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>36000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>478000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>28000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>17000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>85000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>43000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>74000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>14000</v>
       </c>
       <c r="N14" s="3">
         <v>14000</v>
       </c>
       <c r="O14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P14" s="3">
         <v>17000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>35000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>21000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>20000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>48000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2311000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2267000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2437000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2626000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2645000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2434000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2674000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2603000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2745000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2661000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2782000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2580000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2753000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2526000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2515000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2322000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2552000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2668000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E18" s="3">
         <v>21000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>102000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-468000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>80000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>74000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>108000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>105000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>48000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>77000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>55000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>105000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>41000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>124000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>58000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,37 +1378,38 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4000</v>
       </c>
       <c r="G20" s="3">
         <v>4000</v>
       </c>
       <c r="H20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I20" s="3">
         <v>21000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>7000</v>
       </c>
       <c r="J20" s="3">
         <v>7000</v>
       </c>
       <c r="K20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L20" s="3">
         <v>8000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>11000</v>
       </c>
       <c r="M20" s="3">
         <v>11000</v>
@@ -1384,87 +1418,93 @@
         <v>11000</v>
       </c>
       <c r="O20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>8000</v>
       </c>
       <c r="R20" s="3">
         <v>8000</v>
       </c>
       <c r="S20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="T20" s="3">
         <v>10000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E21" s="3">
         <v>68000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>151000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-416000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>133000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>145000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>167000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>45000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>81000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>70000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>160000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>110000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>131000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>107000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>150000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>88000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>174000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>104000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1472,176 +1512,185 @@
         <v>7000</v>
       </c>
       <c r="E22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F22" s="3">
         <v>6000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>18000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>22000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>23000</v>
       </c>
       <c r="K22" s="3">
         <v>23000</v>
       </c>
       <c r="L22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="M22" s="3">
         <v>30000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>31000</v>
       </c>
       <c r="N22" s="3">
         <v>31000</v>
       </c>
       <c r="O22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="P22" s="3">
         <v>29000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E23" s="3">
         <v>15000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>99000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-475000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>66000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>74000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>93000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-31000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>85000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>55000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>41000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>35000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>121000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>46000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>42000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>33000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>158000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>47000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-9000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E26" s="3">
         <v>18000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>57000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-439000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>45000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>55000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>60000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>33000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>98000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>74000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>55000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E27" s="3">
         <v>18000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>57000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-439000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>45000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>55000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>60000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-24000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>33000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-117000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>98000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>74000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>55000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,16 +1934,19 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1893,8 +1954,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1912,31 +1973,34 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-3000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>8000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>65000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-12000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>6000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>84000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>174000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,37 +2120,40 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-4000</v>
       </c>
       <c r="G32" s="3">
         <v>-4000</v>
       </c>
       <c r="H32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-7000</v>
       </c>
       <c r="J32" s="3">
         <v>-7000</v>
       </c>
       <c r="K32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-11000</v>
       </c>
       <c r="M32" s="3">
         <v>-11000</v>
@@ -2092,87 +2162,93 @@
         <v>-11000</v>
       </c>
       <c r="O32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-8000</v>
       </c>
       <c r="R32" s="3">
         <v>-8000</v>
       </c>
       <c r="S32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-10000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E33" s="3">
         <v>18000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>57000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-439000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>45000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>55000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>60000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-24000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>41000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>86000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>158000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>229000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E35" s="3">
         <v>18000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>57000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-439000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>45000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>55000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>60000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-24000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>41000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>86000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>158000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>229000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E41" s="3">
         <v>729000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>743000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>762000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>842000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>698000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>588000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>444000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>604000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>658000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>925000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>747000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>737000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>622000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>788000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>763000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>744000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>763000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,262 +2607,277 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1132000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>678000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>698000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>850000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1642000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1744000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1732000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1780000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>885000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>950000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>905000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>942000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>931000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>693000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>652000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>688000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>687000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>929000</v>
+      </c>
+      <c r="E44" s="3">
         <v>930000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1005000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>929000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1032000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1025000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1113000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1034000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1065000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1023000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1122000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1033000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1093000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1110000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1228000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1179000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1279000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>59000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>60000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>79000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>75000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>103000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>84000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>75000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>112000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>142000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>216000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>225000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>241000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>269000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>313000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>244000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2444000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2355000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2480000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2525000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2700000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3447000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3460000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3389000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3502000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2683000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3010000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2916000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2928000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2871000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2832000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2912000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2924000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2973000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E47" s="3">
         <v>15000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>14000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17000</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
@@ -2783,155 +2888,164 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>842000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>847000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>853000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>858000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>863000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>869000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>874000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>879000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>885000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1642000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1746000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1811000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1884000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2019000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2092000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2073000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2106000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2128000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>763000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>744000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>722000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>713000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>725000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>627000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>580000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>586000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>601000</v>
       </c>
       <c r="U48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E49" s="3">
         <v>966000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>965000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>956000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1319000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1332000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1333000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1345000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1331000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1336000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1342000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1319000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1330000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1299000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>413000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>395000</v>
       </c>
       <c r="S49" s="3">
         <v>395000</v>
       </c>
       <c r="T49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="U49" s="3">
         <v>396000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E52" s="3">
         <v>476000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>475000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>483000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>416000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>440000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>477000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>513000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>510000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>542000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>529000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>549000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>561000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>565000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>656000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>651000</v>
       </c>
       <c r="S52" s="3">
         <v>651000</v>
       </c>
       <c r="T52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="U52" s="3">
         <v>685000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5598000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5558000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5745000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5865000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6454000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7311000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7343000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7353000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7471000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6166000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6472000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6359000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6390000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6323000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5397000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5412000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5435000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5540000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,362 +3401,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E57" s="3">
         <v>919000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1038000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>991000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1006000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1026000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1037000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1089000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1098000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1110000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1085000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1066000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>969000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>892000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>889000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>873000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>835000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>893000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E58" s="3">
         <v>24000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>30000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>104000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>841000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>842000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>837000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>841000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>95000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>92000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>97000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>93000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>96000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>28000</v>
       </c>
       <c r="S58" s="3">
         <v>28000</v>
       </c>
       <c r="T58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="U58" s="3">
         <v>29000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1150000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1228000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1114000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1235000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1227000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1277000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1255000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1294000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>980000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1051000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>957000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1044000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1058000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>952000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>926000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>983000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1109000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2129000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2093000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2287000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2135000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2345000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3094000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3156000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3181000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3233000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2185000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2228000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2120000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2106000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2046000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1858000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1827000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1846000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2031000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>354000</v>
+        <v>344000</v>
       </c>
       <c r="E61" s="3">
         <v>354000</v>
       </c>
       <c r="F61" s="3">
+        <v>354000</v>
+      </c>
+      <c r="G61" s="3">
         <v>642000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>548000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>575000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>593000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>618000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>632000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1444000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1646000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1668000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1688000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1712000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1046000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1134000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1145000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1156000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1165000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1231000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1309000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1371000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1426000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1469000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1467000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1472000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>411000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>401000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>415000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>421000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>427000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>451000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>476000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>490000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>501000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3638000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3678000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3950000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4148000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4319000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5138000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5216000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5271000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5365000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4040000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4275000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4203000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4233000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4203000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3355000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3437000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3481000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3688000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-356000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-409000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-427000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-484000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-89000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-144000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-204000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-180000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-173000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-160000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-220000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-236000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-273000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-221000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-314000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-338000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-453000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1880000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1795000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1717000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2135000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2173000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2127000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2082000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2106000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2126000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2197000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2156000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2157000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2120000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2042000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1975000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1954000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1852000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44282</v>
+      </c>
+      <c r="E80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E81" s="3">
         <v>18000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>57000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-439000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>45000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>55000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>60000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-24000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>41000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>86000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>158000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>229000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,8 +4818,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4632,55 +4831,58 @@
         <v>46000</v>
       </c>
       <c r="F83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="G83" s="3">
         <v>48000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>50000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>52000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>53000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>51000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>37000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>40000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>309000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>188000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>152000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>212000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-58000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>60000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>61000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>304000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>45000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>217000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>40000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>282000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>34000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>102000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="E91" s="3">
         <v>-14000</v>
       </c>
       <c r="F91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-15000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-45000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-66000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-37000</v>
       </c>
       <c r="O91" s="3">
         <v>-37000</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>13000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>31000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>776000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>23000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-61000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-52000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-68000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-76000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-36000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-899000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-154000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>23000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-71000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-93000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5330,25 +5564,25 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-14000</v>
       </c>
       <c r="I96" s="3">
         <v>-14000</v>
       </c>
       <c r="J96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-13000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-14000</v>
       </c>
       <c r="N96" s="3">
         <v>-14000</v>
@@ -5360,7 +5594,7 @@
         <v>-14000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="R96" s="3">
         <v>-13000</v>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-316000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-64000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-808000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-67000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-38000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-43000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-64000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-255000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-52000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-66000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-41000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>672000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-127000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-42000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-38000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-69000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2000</v>
       </c>
       <c r="K101" s="3">
         <v>2000</v>
       </c>
       <c r="L101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>3000</v>
       </c>
       <c r="R101" s="3">
         <v>3000</v>
       </c>
       <c r="S101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-80000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>144000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>110000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>144000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-160000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-54000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-267000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>177000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-27000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>138000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-188000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-136000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E7" s="2">
         <v>44282</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2286000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2366000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2288000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2539000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2158000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2725000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2508000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2782000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2588000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2769000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2670000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2887000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2628000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2830000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2581000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2620000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2363000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2676000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2726000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1814000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1832000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1791000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1949000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1742000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2096000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1937000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2115000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2003000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2128000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2068000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2201000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2032000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2163000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3948000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3974000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3636000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4002000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2072000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E10" s="3">
         <v>534000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>497000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>590000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>416000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>629000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>571000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>667000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>585000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>641000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>602000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>686000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>596000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>667000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>654000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,70 +1103,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E14" s="3">
         <v>26000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>36000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>478000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>28000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>17000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>85000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>43000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>74000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>14000</v>
       </c>
       <c r="O14" s="3">
         <v>14000</v>
       </c>
       <c r="P14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>17000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>35000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>22000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>21000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>20000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>48000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2364000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2311000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2267000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2437000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2626000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2645000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2434000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2674000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2603000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2745000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2661000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2782000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2580000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2753000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2526000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2515000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2322000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2552000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2668000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E18" s="3">
         <v>55000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>102000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-468000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>80000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>74000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>108000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>105000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>48000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>77000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>55000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>105000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>41000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>124000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>58000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,40 +1412,41 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4000</v>
       </c>
       <c r="H20" s="3">
         <v>4000</v>
       </c>
       <c r="I20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J20" s="3">
         <v>21000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>7000</v>
       </c>
       <c r="K20" s="3">
         <v>7000</v>
       </c>
       <c r="L20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M20" s="3">
         <v>8000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>11000</v>
       </c>
       <c r="N20" s="3">
         <v>11000</v>
@@ -1421,276 +1455,291 @@
         <v>11000</v>
       </c>
       <c r="P20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>8000</v>
       </c>
       <c r="S20" s="3">
         <v>8000</v>
       </c>
       <c r="T20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="U20" s="3">
         <v>10000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E21" s="3">
         <v>112000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>151000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-416000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>133000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>145000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>167000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>45000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>70000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>160000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>110000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>131000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>107000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>150000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>88000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>174000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>104000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="E22" s="3">
         <v>7000</v>
       </c>
       <c r="F22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G22" s="3">
         <v>6000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>18000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>21000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>22000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>23000</v>
       </c>
       <c r="L22" s="3">
         <v>23000</v>
       </c>
       <c r="M22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="N22" s="3">
         <v>30000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>31000</v>
       </c>
       <c r="O22" s="3">
         <v>31000</v>
       </c>
       <c r="P22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>29000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E23" s="3">
         <v>59000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>99000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-475000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>66000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>74000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>93000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-31000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>85000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>55000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>41000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>35000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>121000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>46000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>42000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-36000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>25000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>158000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>47000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-9000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E26" s="3">
         <v>53000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>57000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-439000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>45000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>55000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>60000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>33000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-117000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>98000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>74000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>55000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E27" s="3">
         <v>53000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>57000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-439000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>45000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>55000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>60000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>33000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-117000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>98000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>74000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>55000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,19 +1995,22 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1957,8 +2018,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1976,31 +2037,34 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>8000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>65000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-12000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>6000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>84000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>174000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,40 +2190,43 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-4000</v>
       </c>
       <c r="H32" s="3">
         <v>-4000</v>
       </c>
       <c r="I32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-7000</v>
       </c>
       <c r="K32" s="3">
         <v>-7000</v>
       </c>
       <c r="L32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-11000</v>
       </c>
       <c r="N32" s="3">
         <v>-11000</v>
@@ -2165,90 +2235,96 @@
         <v>-11000</v>
       </c>
       <c r="P32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-8000</v>
       </c>
       <c r="S32" s="3">
         <v>-8000</v>
       </c>
       <c r="T32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-10000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E33" s="3">
         <v>53000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>57000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-439000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>45000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>55000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>60000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>41000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-52000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>86000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>27000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>158000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>229000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E35" s="3">
         <v>53000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>57000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-439000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>45000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>55000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>60000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>41000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-52000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>86000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>27000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>158000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>229000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E38" s="2">
         <v>44282</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2572,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>691000</v>
+      </c>
+      <c r="E41" s="3">
         <v>753000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>729000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>743000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>762000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>842000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>698000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>588000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>444000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>604000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>658000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>925000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>747000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>737000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>622000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>788000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>763000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>744000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>763000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,277 +2700,292 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>699000</v>
+      </c>
+      <c r="E43" s="3">
         <v>704000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1132000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>678000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>698000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>850000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1642000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1744000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1732000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1780000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>885000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>950000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>905000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>942000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>931000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>693000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>652000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>688000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>687000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>957000</v>
+      </c>
+      <c r="E44" s="3">
         <v>929000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>930000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1000000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1005000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>929000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1032000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1025000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1113000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1034000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1065000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1023000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1122000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1033000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1093000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1110000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1228000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1179000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1279000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E45" s="3">
         <v>58000</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>59000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>60000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>79000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>75000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>103000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>84000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>75000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>112000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>142000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>216000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>225000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>241000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>269000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>313000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>244000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2411000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2444000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2355000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2480000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2525000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2700000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3447000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3460000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3389000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3502000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2683000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3010000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2916000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2928000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2871000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2832000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2912000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2924000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2973000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E47" s="3">
         <v>14000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>15000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>14000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17000</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
@@ -2891,161 +2996,170 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>842000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>847000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>853000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>858000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>863000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>869000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>874000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>879000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>885000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1586000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1642000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1746000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1811000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1884000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2019000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2092000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2073000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2106000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2128000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>763000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>744000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>722000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>713000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>725000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>627000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>580000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>586000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>601000</v>
       </c>
       <c r="V48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>916000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1034000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>966000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>965000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>956000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1319000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1332000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1333000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1345000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1331000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1336000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1342000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1319000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1330000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1299000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>413000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>395000</v>
       </c>
       <c r="T49" s="3">
         <v>395000</v>
       </c>
       <c r="U49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="V49" s="3">
         <v>396000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E52" s="3">
         <v>464000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>476000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>475000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>483000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>416000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>440000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>477000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>513000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>510000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>542000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>529000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>549000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>561000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>565000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>656000</v>
-      </c>
-      <c r="S52" s="3">
-        <v>651000</v>
       </c>
       <c r="T52" s="3">
         <v>651000</v>
       </c>
       <c r="U52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="V52" s="3">
         <v>685000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5378000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5598000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5558000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5745000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5865000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6454000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7311000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7343000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7353000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7471000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6166000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6472000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6359000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6390000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6323000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5397000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5412000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5435000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5540000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,380 +3532,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>979000</v>
+      </c>
+      <c r="E57" s="3">
         <v>959000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>919000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1038000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>991000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1006000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1026000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1037000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1089000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1098000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1110000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1085000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1066000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>969000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>892000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>889000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>873000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>835000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>893000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E58" s="3">
         <v>23000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>30000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>104000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>841000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>842000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>837000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>841000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>95000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>92000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>97000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>93000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>96000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>17000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>28000</v>
       </c>
       <c r="T58" s="3">
         <v>28000</v>
       </c>
       <c r="U58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="V58" s="3">
         <v>29000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1147000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1150000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1228000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1114000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1235000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1227000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1277000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1255000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1294000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>980000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1051000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>957000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1044000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1058000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>952000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>926000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>983000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1109000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2129000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2093000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2287000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2135000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2345000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3094000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3156000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3181000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3233000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2185000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2228000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2120000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2106000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2046000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1858000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1827000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1846000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2031000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E61" s="3">
         <v>344000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>354000</v>
       </c>
       <c r="F61" s="3">
         <v>354000</v>
       </c>
       <c r="G61" s="3">
+        <v>354000</v>
+      </c>
+      <c r="H61" s="3">
         <v>642000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>548000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>575000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>593000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>618000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>632000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1444000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1646000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1668000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1688000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1712000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1046000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1134000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1145000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1156000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1165000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1231000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1309000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1371000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1426000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1469000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1467000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1472000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>411000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>401000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>415000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>421000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>427000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>451000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>476000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>490000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>501000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3537000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3638000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3678000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3950000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4148000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4319000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5138000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5216000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5271000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5365000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4040000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4275000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4203000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4233000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4203000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3355000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3437000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3481000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3688000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-444000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-356000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-409000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-427000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-484000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-89000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-144000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-204000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-180000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-173000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-160000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-220000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-236000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-273000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-221000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-314000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-338000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-453000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1841000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1960000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1880000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1795000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1717000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2135000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2173000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2127000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2082000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2106000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2126000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2197000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2156000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2157000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2120000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2042000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1975000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1954000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1852000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44373</v>
+      </c>
+      <c r="E80" s="2">
         <v>44282</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E81" s="3">
         <v>53000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>57000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-439000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>45000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>55000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>60000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>41000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-52000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>86000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>27000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>158000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>229000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,13 +5017,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>46000</v>
+        <v>43000</v>
       </c>
       <c r="E83" s="3">
         <v>46000</v>
@@ -4834,55 +5033,58 @@
         <v>46000</v>
       </c>
       <c r="G83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="H83" s="3">
         <v>48000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>52000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>53000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>50000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>44000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>51000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>39000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>40000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>86000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>309000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>188000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>152000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>212000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-58000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>60000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>61000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>304000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>45000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>217000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>40000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>282000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>34000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>102000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-14000</v>
       </c>
       <c r="F91" s="3">
         <v>-14000</v>
       </c>
       <c r="G91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-15000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-32000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-66000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-37000</v>
       </c>
       <c r="P91" s="3">
         <v>-37000</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>13000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>31000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>776000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>23000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-52000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-68000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-76000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-899000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-154000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>23000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-71000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-93000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5567,25 +5801,25 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-14000</v>
       </c>
       <c r="J96" s="3">
         <v>-14000</v>
       </c>
       <c r="K96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-13000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-14000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-14000</v>
       </c>
       <c r="O96" s="3">
         <v>-14000</v>
@@ -5597,7 +5831,7 @@
         <v>-14000</v>
       </c>
       <c r="R96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="S96" s="3">
         <v>-13000</v>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6040,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-30000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-316000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-64000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-808000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-67000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-38000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-64000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-255000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-52000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-66000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>672000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-127000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-42000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-38000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-69000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>2000</v>
       </c>
       <c r="L101" s="3">
         <v>2000</v>
       </c>
       <c r="M101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N101" s="3">
         <v>-5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>3000</v>
       </c>
       <c r="S101" s="3">
         <v>3000</v>
       </c>
       <c r="T101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U101" s="3">
         <v>2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E102" s="3">
         <v>24000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-80000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>144000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>110000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>144000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-160000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-54000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-267000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>177000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-27000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>138000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-188000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>18000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-136000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,307 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E7" s="2">
         <v>44373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44282</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2286000</v>
+        <v>2179000</v>
       </c>
       <c r="E8" s="3">
+        <v>4244000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2366000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2288000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2539000</v>
-      </c>
       <c r="H8" s="3">
-        <v>2158000</v>
+        <v>2347000</v>
       </c>
       <c r="I8" s="3">
+        <v>4440000</v>
+      </c>
+      <c r="J8" s="3">
         <v>2725000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2508000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2782000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2588000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2769000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2670000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2887000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2628000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2830000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2581000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2620000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2363000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2676000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2726000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1814000</v>
+        <v>1675000</v>
       </c>
       <c r="E9" s="3">
+        <v>3317000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1832000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1791000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1949000</v>
-      </c>
       <c r="H9" s="3">
-        <v>1742000</v>
+        <v>1800000</v>
       </c>
       <c r="I9" s="3">
+        <v>3486000</v>
+      </c>
+      <c r="J9" s="3">
         <v>2096000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1937000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2115000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2003000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2128000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2068000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2201000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2032000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2163000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3948000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3974000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3636000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4002000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2072000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>472000</v>
+        <v>504000</v>
       </c>
       <c r="E10" s="3">
+        <v>927000</v>
+      </c>
+      <c r="F10" s="3">
         <v>534000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>497000</v>
       </c>
-      <c r="G10" s="3">
-        <v>590000</v>
-      </c>
       <c r="H10" s="3">
-        <v>416000</v>
+        <v>547000</v>
       </c>
       <c r="I10" s="3">
+        <v>954000</v>
+      </c>
+      <c r="J10" s="3">
         <v>629000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>571000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>667000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>585000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>641000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>602000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>686000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>596000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>667000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>654000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,73 +1123,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>122000</v>
+        <v>18000</v>
       </c>
       <c r="E14" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F14" s="3">
         <v>26000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22000</v>
       </c>
-      <c r="G14" s="3">
-        <v>36000</v>
-      </c>
       <c r="H14" s="3">
-        <v>478000</v>
+        <v>34000</v>
       </c>
       <c r="I14" s="3">
+        <v>242000</v>
+      </c>
+      <c r="J14" s="3">
         <v>28000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>85000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>43000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>74000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>14000</v>
       </c>
       <c r="P14" s="3">
         <v>14000</v>
       </c>
       <c r="Q14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="R14" s="3">
         <v>17000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>35000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>22000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>21000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>20000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>48000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2364000</v>
+        <v>2075000</v>
       </c>
       <c r="E17" s="3">
+        <v>4145000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2311000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2267000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2437000</v>
-      </c>
       <c r="H17" s="3">
-        <v>2626000</v>
+        <v>2245000</v>
       </c>
       <c r="I17" s="3">
+        <v>4568000</v>
+      </c>
+      <c r="J17" s="3">
         <v>2645000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2434000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2674000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2603000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2745000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2661000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2782000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2580000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2753000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2526000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2515000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2322000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2552000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2668000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-78000</v>
+        <v>104000</v>
       </c>
       <c r="E18" s="3">
+        <v>99000</v>
+      </c>
+      <c r="F18" s="3">
         <v>55000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>102000</v>
       </c>
-      <c r="H18" s="3">
-        <v>-468000</v>
-      </c>
       <c r="I18" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="J18" s="3">
         <v>80000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>74000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>108000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>105000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>48000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>77000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>55000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>105000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>41000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>124000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>58000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,43 +1446,44 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>3000</v>
-      </c>
       <c r="H20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>21000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>7000</v>
       </c>
       <c r="L20" s="3">
         <v>7000</v>
       </c>
       <c r="M20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N20" s="3">
         <v>8000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>11000</v>
       </c>
       <c r="O20" s="3">
         <v>11000</v>
@@ -1458,288 +1492,303 @@
         <v>11000</v>
       </c>
       <c r="Q20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="R20" s="3">
         <v>7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>8000</v>
       </c>
       <c r="T20" s="3">
         <v>8000</v>
       </c>
       <c r="U20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="V20" s="3">
         <v>10000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-30000</v>
+        <v>128000</v>
       </c>
       <c r="E21" s="3">
+        <v>204000</v>
+      </c>
+      <c r="F21" s="3">
         <v>112000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>68000</v>
       </c>
-      <c r="G21" s="3">
-        <v>151000</v>
-      </c>
       <c r="H21" s="3">
-        <v>-416000</v>
+        <v>150000</v>
       </c>
       <c r="I21" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="J21" s="3">
         <v>133000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>145000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>167000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>45000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>81000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>70000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>160000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>110000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>131000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>107000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>150000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>88000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>174000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>104000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="E22" s="3">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="F22" s="3">
         <v>7000</v>
       </c>
       <c r="G22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3">
-        <v>11000</v>
-      </c>
       <c r="I22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J22" s="3">
         <v>18000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>21000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>23000</v>
       </c>
       <c r="M22" s="3">
         <v>23000</v>
       </c>
       <c r="N22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="O22" s="3">
         <v>30000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>31000</v>
       </c>
       <c r="P22" s="3">
         <v>31000</v>
       </c>
       <c r="Q22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="R22" s="3">
         <v>29000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>17000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-79000</v>
+        <v>100000</v>
       </c>
       <c r="E23" s="3">
+        <v>102000</v>
+      </c>
+      <c r="F23" s="3">
         <v>59000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15000</v>
       </c>
-      <c r="G23" s="3">
-        <v>99000</v>
-      </c>
       <c r="H23" s="3">
-        <v>-475000</v>
+        <v>98000</v>
       </c>
       <c r="I23" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="J23" s="3">
         <v>66000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>74000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>93000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-31000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>85000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>28000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>41000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>35000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>121000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>46000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>64000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>33000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>9000</v>
       </c>
-      <c r="E24" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>42000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-36000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>21000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>19000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>33000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>25000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>9000</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>22000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>158000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>47000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-9000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-88000</v>
+        <v>73000</v>
       </c>
       <c r="E26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F26" s="3">
         <v>53000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18000</v>
       </c>
-      <c r="G26" s="3">
-        <v>57000</v>
-      </c>
       <c r="H26" s="3">
-        <v>-439000</v>
+        <v>34000</v>
       </c>
       <c r="I26" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="J26" s="3">
         <v>45000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>55000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>60000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>33000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-117000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>98000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>74000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>55000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-88000</v>
+        <v>73000</v>
       </c>
       <c r="E27" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F27" s="3">
         <v>53000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18000</v>
       </c>
-      <c r="G27" s="3">
-        <v>57000</v>
-      </c>
       <c r="H27" s="3">
-        <v>-439000</v>
+        <v>34000</v>
       </c>
       <c r="I27" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="J27" s="3">
         <v>45000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>55000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>33000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-117000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>98000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>21000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>74000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>55000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,32 +2056,35 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -2040,31 +2101,34 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>8000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>65000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-12000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>6000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>84000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>174000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,43 +2260,46 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5000</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-7000</v>
       </c>
       <c r="L32" s="3">
         <v>-7000</v>
       </c>
       <c r="M32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-11000</v>
       </c>
       <c r="O32" s="3">
         <v>-11000</v>
@@ -2238,93 +2308,99 @@
         <v>-11000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-8000</v>
       </c>
       <c r="T32" s="3">
         <v>-8000</v>
       </c>
       <c r="U32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-10000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-88000</v>
+        <v>101000</v>
       </c>
       <c r="E33" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F33" s="3">
         <v>53000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>57000</v>
       </c>
-      <c r="H33" s="3">
-        <v>-439000</v>
-      </c>
       <c r="I33" s="3">
+        <v>-394000</v>
+      </c>
+      <c r="J33" s="3">
         <v>45000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>55000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>41000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-52000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>86000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>27000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>158000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>229000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-88000</v>
+        <v>101000</v>
       </c>
       <c r="E35" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F35" s="3">
         <v>53000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>57000</v>
       </c>
-      <c r="H35" s="3">
-        <v>-439000</v>
-      </c>
       <c r="I35" s="3">
+        <v>-394000</v>
+      </c>
+      <c r="J35" s="3">
         <v>45000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>55000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>41000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-52000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>86000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>27000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>158000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>229000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E38" s="2">
         <v>44373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44282</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E41" s="3">
         <v>691000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>753000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>729000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>743000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>762000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>842000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>698000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>588000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>444000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>604000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>658000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>925000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>747000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>737000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>622000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>788000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>763000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>744000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>763000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,292 +2793,307 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E43" s="3">
         <v>699000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>704000</v>
       </c>
-      <c r="F43" s="3">
-        <v>1132000</v>
-      </c>
       <c r="G43" s="3">
+        <v>457000</v>
+      </c>
+      <c r="H43" s="3">
         <v>678000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>698000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>850000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1642000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1744000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1732000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1780000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>885000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>950000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>905000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>942000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>931000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>693000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>652000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>688000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>687000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E44" s="3">
         <v>957000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>929000</v>
       </c>
-      <c r="F44" s="3">
-        <v>930000</v>
-      </c>
       <c r="G44" s="3">
+        <v>916000</v>
+      </c>
+      <c r="H44" s="3">
         <v>1000000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1005000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>929000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1032000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1025000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1113000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1034000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1065000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1023000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1122000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1033000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1093000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1110000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1228000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1179000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1279000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>783000</v>
+      </c>
+      <c r="E45" s="3">
         <v>64000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>58000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" s="3">
+        <v>253000</v>
+      </c>
+      <c r="H45" s="3">
         <v>59000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>60000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>79000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>75000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>103000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>84000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>75000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>112000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>142000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>216000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>225000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>241000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>269000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>313000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>244000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2876000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2411000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2444000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2355000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2480000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2525000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2700000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3447000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3460000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3389000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3502000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2683000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3010000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2916000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2928000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2871000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2832000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2912000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2924000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2973000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E47" s="3">
         <v>13000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>14000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>15000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>14000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17000</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
@@ -2999,167 +3104,176 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>842000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>847000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>853000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>858000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>863000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>869000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>874000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>879000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>885000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1440000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1586000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1642000</v>
       </c>
-      <c r="F48" s="3">
-        <v>1746000</v>
-      </c>
       <c r="G48" s="3">
+        <v>1649000</v>
+      </c>
+      <c r="H48" s="3">
         <v>1811000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1884000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2019000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2092000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2073000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2106000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2128000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>763000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>744000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>722000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>713000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>725000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>627000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>580000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>586000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>601000</v>
       </c>
       <c r="W48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E49" s="3">
         <v>916000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1034000</v>
       </c>
-      <c r="F49" s="3">
-        <v>966000</v>
-      </c>
       <c r="G49" s="3">
+        <v>451000</v>
+      </c>
+      <c r="H49" s="3">
         <v>965000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>956000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1319000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1332000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1333000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1345000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1331000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1336000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1342000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1319000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1330000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1299000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>413000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>395000</v>
       </c>
       <c r="U49" s="3">
         <v>395000</v>
       </c>
       <c r="V49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="W49" s="3">
         <v>396000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E52" s="3">
         <v>452000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>464000</v>
       </c>
-      <c r="F52" s="3">
-        <v>476000</v>
-      </c>
       <c r="G52" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="H52" s="3">
         <v>475000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>483000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>416000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>440000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>477000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>513000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>510000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>542000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>529000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>549000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>561000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>565000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>656000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>651000</v>
       </c>
       <c r="U52" s="3">
         <v>651000</v>
       </c>
       <c r="V52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="W52" s="3">
         <v>685000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5351000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5378000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5598000</v>
       </c>
-      <c r="F54" s="3">
-        <v>5558000</v>
-      </c>
       <c r="G54" s="3">
+        <v>5614000</v>
+      </c>
+      <c r="H54" s="3">
         <v>5745000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5865000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6454000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7311000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7343000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7353000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7471000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6166000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6472000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6359000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6390000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6323000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5397000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5412000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5435000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5540000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,398 +3663,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>863000</v>
+      </c>
+      <c r="E57" s="3">
         <v>979000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>959000</v>
       </c>
-      <c r="F57" s="3">
-        <v>919000</v>
-      </c>
       <c r="G57" s="3">
+        <v>857000</v>
+      </c>
+      <c r="H57" s="3">
         <v>1038000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>991000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1006000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1026000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1037000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1089000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1098000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1110000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1085000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1066000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>969000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>892000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>889000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>873000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>835000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>893000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="3">
         <v>22000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23000</v>
       </c>
-      <c r="F58" s="3">
-        <v>24000</v>
-      </c>
       <c r="G58" s="3">
+        <v>48000</v>
+      </c>
+      <c r="H58" s="3">
         <v>21000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>30000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>104000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>841000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>842000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>837000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>841000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>95000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>92000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>97000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>93000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>96000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>17000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>28000</v>
       </c>
       <c r="U58" s="3">
         <v>28000</v>
       </c>
       <c r="V58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="W58" s="3">
         <v>29000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1298000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1099000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1147000</v>
       </c>
-      <c r="F59" s="3">
-        <v>1150000</v>
-      </c>
       <c r="G59" s="3">
+        <v>1556000</v>
+      </c>
+      <c r="H59" s="3">
         <v>1228000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1114000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1235000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1227000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1277000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1255000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1294000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>980000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1051000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>957000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1044000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1058000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>952000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>926000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>983000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1109000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2181000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2129000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2093000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2287000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2135000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2345000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3094000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3156000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3181000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3233000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2185000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2228000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2120000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2106000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2046000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1858000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1827000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1846000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2031000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E61" s="3">
         <v>337000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>344000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>354000</v>
       </c>
       <c r="G61" s="3">
         <v>354000</v>
       </c>
       <c r="H61" s="3">
+        <v>354000</v>
+      </c>
+      <c r="I61" s="3">
         <v>642000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>548000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>575000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>593000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>618000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>632000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1444000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1646000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1668000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1688000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1712000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1046000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1134000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1145000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1156000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>975000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1165000</v>
       </c>
-      <c r="F62" s="3">
-        <v>1231000</v>
-      </c>
       <c r="G62" s="3">
+        <v>1287000</v>
+      </c>
+      <c r="H62" s="3">
         <v>1309000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1371000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1426000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1469000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1467000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1472000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1500000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>411000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>401000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>415000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>421000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>427000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>451000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>476000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>490000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>501000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3489000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3537000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3638000</v>
       </c>
-      <c r="F66" s="3">
-        <v>3678000</v>
-      </c>
       <c r="G66" s="3">
+        <v>3734000</v>
+      </c>
+      <c r="H66" s="3">
         <v>3950000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4148000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4319000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5138000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5216000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5271000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5365000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4040000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4275000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4203000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4233000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4203000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3355000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3437000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3481000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3688000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-343000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-444000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-356000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-409000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-427000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-484000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-89000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-144000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-204000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-180000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-173000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-160000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-220000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-236000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-273000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-221000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-314000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-338000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-453000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1862000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1841000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1960000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1880000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1795000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1717000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2135000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2173000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2127000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2082000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2106000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2126000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2197000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2156000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2157000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2120000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2042000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1975000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1954000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1852000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44464</v>
+      </c>
+      <c r="E80" s="2">
         <v>44373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44282</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-88000</v>
+        <v>101000</v>
       </c>
       <c r="E81" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F81" s="3">
         <v>53000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>57000</v>
       </c>
-      <c r="H81" s="3">
-        <v>-439000</v>
-      </c>
       <c r="I81" s="3">
+        <v>-394000</v>
+      </c>
+      <c r="J81" s="3">
         <v>45000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>55000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>41000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-52000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>86000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>27000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>158000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>229000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,16 +5216,17 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>43000</v>
+        <v>21000</v>
       </c>
       <c r="E83" s="3">
-        <v>46000</v>
+        <v>89000</v>
       </c>
       <c r="F83" s="3">
         <v>46000</v>
@@ -5036,55 +5235,58 @@
         <v>46000</v>
       </c>
       <c r="H83" s="3">
-        <v>48000</v>
+        <v>46000</v>
       </c>
       <c r="I83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="J83" s="3">
         <v>49000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>50000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>53000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>50000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>44000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>51000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>37000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>39000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>40000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11000</v>
+        <v>171000</v>
       </c>
       <c r="E89" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F89" s="3">
         <v>86000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>309000</v>
       </c>
-      <c r="H89" s="3">
-        <v>-8000</v>
-      </c>
       <c r="I89" s="3">
+        <v>180000</v>
+      </c>
+      <c r="J89" s="3">
         <v>188000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>152000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>212000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-58000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>60000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>61000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>304000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>45000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>217000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>282000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>34000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>102000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>36000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16000</v>
+        <v>-18000</v>
       </c>
       <c r="E91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-13000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-14000</v>
       </c>
       <c r="G91" s="3">
         <v>-14000</v>
       </c>
       <c r="H91" s="3">
-        <v>-15000</v>
+        <v>-14000</v>
       </c>
       <c r="I91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-25000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-66000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-37000</v>
       </c>
       <c r="Q91" s="3">
         <v>-37000</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>13000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>31000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-21000</v>
       </c>
       <c r="E94" s="3">
         <v>-33000</v>
       </c>
       <c r="F94" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-10000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-14000</v>
-      </c>
       <c r="I94" s="3">
+        <v>762000</v>
+      </c>
+      <c r="J94" s="3">
         <v>776000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>23000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-61000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-52000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-68000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-76000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-36000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-899000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-154000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>23000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-71000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-93000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5807,22 +6041,22 @@
         <v>-13000</v>
       </c>
       <c r="J96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="K96" s="3">
         <v>-14000</v>
       </c>
       <c r="L96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-13000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-14000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-14000</v>
       </c>
       <c r="P96" s="3">
         <v>-14000</v>
@@ -5834,7 +6068,7 @@
         <v>-14000</v>
       </c>
       <c r="S96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="T96" s="3">
         <v>-13000</v>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-53000</v>
+        <v>-85000</v>
       </c>
       <c r="E100" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-30000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-316000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>-872000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-808000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="N100" s="3">
         <v>-64000</v>
       </c>
-      <c r="I100" s="3">
-        <v>-808000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-67000</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
+        <v>-255000</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="S100" s="3">
+        <v>672000</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-127000</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="V100" s="3">
         <v>-38000</v>
       </c>
-      <c r="L100" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-64000</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-255000</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-52000</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-66000</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-41000</v>
-      </c>
-      <c r="R100" s="3">
-        <v>672000</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-127000</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-42000</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-38000</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-69000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>2000</v>
       </c>
       <c r="M101" s="3">
         <v>2000</v>
       </c>
       <c r="N101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O101" s="3">
         <v>-5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>3000</v>
       </c>
       <c r="T101" s="3">
         <v>3000</v>
       </c>
       <c r="U101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V101" s="3">
         <v>2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-10000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62000</v>
+        <v>62000</v>
       </c>
       <c r="E102" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F102" s="3">
         <v>24000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21000</v>
       </c>
-      <c r="H102" s="3">
-        <v>-80000</v>
-      </c>
       <c r="I102" s="3">
+        <v>64000</v>
+      </c>
+      <c r="J102" s="3">
         <v>144000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>110000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>144000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-160000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-54000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-267000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>177000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>138000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-188000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-136000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E7" s="2">
         <v>44464</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44282</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2042000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2179000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4244000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2366000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2288000</v>
-      </c>
       <c r="H8" s="3">
+        <v>2085000</v>
+      </c>
+      <c r="I8" s="3">
         <v>2347000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4440000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2725000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2508000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2782000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2588000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2769000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2670000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2887000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2628000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2830000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2581000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2620000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2363000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2676000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2726000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1610000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1675000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3317000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1832000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1791000</v>
-      </c>
       <c r="H9" s="3">
+        <v>3426000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1800000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3486000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2096000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1937000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2115000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2003000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2128000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2068000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2201000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2032000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2163000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3948000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3974000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3636000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4002000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2072000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E10" s="3">
         <v>504000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>927000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>534000</v>
       </c>
-      <c r="G10" s="3">
-        <v>497000</v>
-      </c>
       <c r="H10" s="3">
+        <v>-1341000</v>
+      </c>
+      <c r="I10" s="3">
         <v>547000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>954000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>629000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>571000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>667000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>585000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>641000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>602000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>686000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>596000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>667000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>654000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,76 +1142,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E14" s="3">
         <v>18000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>37000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>26000</v>
       </c>
-      <c r="G14" s="3">
-        <v>22000</v>
-      </c>
       <c r="H14" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I14" s="3">
         <v>34000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>242000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>28000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>27000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>85000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>43000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>74000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>14000</v>
       </c>
       <c r="Q14" s="3">
         <v>14000</v>
       </c>
       <c r="R14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="S14" s="3">
         <v>17000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>35000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>22000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>21000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>20000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>48000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2011000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2075000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4145000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2311000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2267000</v>
-      </c>
       <c r="H17" s="3">
+        <v>2065000</v>
+      </c>
+      <c r="I17" s="3">
         <v>2245000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4568000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2645000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2434000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2674000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2603000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2745000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2661000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2782000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2580000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2753000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2526000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2515000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2322000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2552000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2668000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E18" s="3">
         <v>104000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>99000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>55000</v>
       </c>
-      <c r="G18" s="3">
-        <v>21000</v>
-      </c>
       <c r="H18" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I18" s="3">
         <v>102000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-128000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>80000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>74000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>108000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>105000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>48000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>77000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>55000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>105000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>41000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>124000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>58000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,46 +1479,47 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1000</v>
       </c>
       <c r="H20" s="3">
         <v>2000</v>
       </c>
       <c r="I20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>7000</v>
       </c>
       <c r="M20" s="3">
         <v>7000</v>
       </c>
       <c r="N20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O20" s="3">
         <v>8000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>11000</v>
       </c>
       <c r="P20" s="3">
         <v>11000</v>
@@ -1495,300 +1528,315 @@
         <v>11000</v>
       </c>
       <c r="R20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>8000</v>
       </c>
       <c r="U20" s="3">
         <v>8000</v>
       </c>
       <c r="V20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="W20" s="3">
         <v>10000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E21" s="3">
         <v>128000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>204000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>112000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>68000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>150000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>133000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>145000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>167000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>45000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>81000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>70000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>160000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>110000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>131000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>107000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>150000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>88000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>174000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>104000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
         <v>7000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>7000</v>
       </c>
       <c r="G22" s="3">
         <v>7000</v>
       </c>
       <c r="H22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I22" s="3">
         <v>6000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>23000</v>
       </c>
       <c r="N22" s="3">
         <v>23000</v>
       </c>
       <c r="O22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="P22" s="3">
         <v>30000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>31000</v>
       </c>
       <c r="Q22" s="3">
         <v>31000</v>
       </c>
       <c r="R22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="S22" s="3">
         <v>29000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>14000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>17000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E23" s="3">
         <v>100000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>102000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>59000</v>
       </c>
-      <c r="G23" s="3">
-        <v>15000</v>
-      </c>
       <c r="H23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I23" s="3">
         <v>98000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-150000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>66000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>74000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>93000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>85000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>28000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>41000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>35000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>121000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>46000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>27000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="I24" s="3">
         <v>64000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-22000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>33000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>158000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>47000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-9000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E26" s="3">
         <v>73000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>82000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53000</v>
       </c>
-      <c r="G26" s="3">
-        <v>18000</v>
-      </c>
       <c r="H26" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I26" s="3">
         <v>34000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-128000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>45000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>55000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>33000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-117000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>98000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>21000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>74000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>55000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E27" s="3">
         <v>73000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>82000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53000</v>
       </c>
-      <c r="G27" s="3">
-        <v>18000</v>
-      </c>
       <c r="H27" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I27" s="3">
         <v>34000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-128000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>45000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>55000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>33000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-117000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>98000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>21000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>74000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>55000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,35 +2116,38 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-306000</v>
+      </c>
+      <c r="E29" s="3">
         <v>28000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-117000</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I29" s="3">
         <v>23000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-266000</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2104,31 +2164,34 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>8000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>65000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-12000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>6000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>84000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>174000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,46 +2329,49 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1000</v>
       </c>
       <c r="H32" s="3">
         <v>-2000</v>
       </c>
       <c r="I32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-7000</v>
       </c>
       <c r="M32" s="3">
         <v>-7000</v>
       </c>
       <c r="N32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-11000</v>
       </c>
       <c r="P32" s="3">
         <v>-11000</v>
@@ -2311,96 +2380,102 @@
         <v>-11000</v>
       </c>
       <c r="R32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-8000</v>
       </c>
       <c r="U32" s="3">
         <v>-8000</v>
       </c>
       <c r="V32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-10000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-274000</v>
+      </c>
+      <c r="E33" s="3">
         <v>101000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-35000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>53000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>57000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-394000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>45000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>55000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>41000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-52000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>86000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>27000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>158000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>229000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-274000</v>
+      </c>
+      <c r="E35" s="3">
         <v>101000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-35000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>53000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>57000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-394000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>45000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>55000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>41000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-52000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>86000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>27000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>158000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>229000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E38" s="2">
         <v>44464</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44282</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E41" s="3">
         <v>753000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>691000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>753000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>729000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>743000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>762000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>842000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>698000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>588000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>444000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>604000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>658000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>925000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>747000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>737000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>622000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>788000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>763000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>744000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>763000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,307 +2885,322 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E43" s="3">
         <v>499000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>699000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>704000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>457000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>678000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>698000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>850000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1642000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1744000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1732000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1780000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>885000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>950000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>905000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>942000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>931000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>693000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>652000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>688000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>687000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>859000</v>
+      </c>
+      <c r="E44" s="3">
         <v>841000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>957000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>929000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>916000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1000000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1005000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>929000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1032000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1025000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1113000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1034000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1065000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1023000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1122000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1033000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1093000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1110000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1228000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1179000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1279000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>505000</v>
+      </c>
+      <c r="E45" s="3">
         <v>783000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>64000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>58000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>253000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>60000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>79000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>75000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>103000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>84000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>75000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>112000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>142000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>216000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>225000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>241000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>269000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>313000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>244000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2876000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2411000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2444000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2355000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2480000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2525000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2700000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3447000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3460000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3389000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3502000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2683000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3010000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2916000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2928000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2871000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2832000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2912000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2924000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2973000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E47" s="3">
         <v>10000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>13000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>14000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>15000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>14000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17000</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
@@ -3107,173 +3211,182 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>842000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>847000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>853000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>858000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>863000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>869000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>874000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>879000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>885000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1413000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1440000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1586000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1642000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1649000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1811000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1884000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2019000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2092000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2073000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2106000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2128000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>763000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>744000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>722000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>713000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>725000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>627000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>580000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>586000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>601000</v>
       </c>
       <c r="X48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E49" s="3">
         <v>519000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>916000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1034000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>451000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>965000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>956000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1319000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1332000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1333000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1345000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1331000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1336000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1342000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1319000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1330000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1299000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>413000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>395000</v>
       </c>
       <c r="V49" s="3">
         <v>395000</v>
       </c>
       <c r="W49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="X49" s="3">
         <v>396000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E52" s="3">
         <v>506000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>452000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>464000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1144000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>475000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>483000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>416000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>440000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>477000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>513000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>510000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>542000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>529000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>549000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>561000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>565000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>656000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>651000</v>
       </c>
       <c r="V52" s="3">
         <v>651000</v>
       </c>
       <c r="W52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="X52" s="3">
         <v>685000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4865000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5351000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5378000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5598000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5614000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5745000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5865000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6454000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7311000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7343000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7353000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7471000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6166000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6472000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6359000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6390000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6323000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5397000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5412000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5435000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5540000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,76 +3793,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>950000</v>
+      </c>
+      <c r="E57" s="3">
         <v>863000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>979000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>959000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>857000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1038000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>991000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1006000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1026000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1037000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1089000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1098000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1110000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1085000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1066000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>969000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>892000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>889000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>873000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>835000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>893000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3741,339 +3874,354 @@
         <v>20000</v>
       </c>
       <c r="E58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F58" s="3">
         <v>22000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>23000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>48000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>30000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>104000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>841000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>842000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>837000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>841000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>95000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>92000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>97000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>93000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>96000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>28000</v>
       </c>
       <c r="V58" s="3">
         <v>28000</v>
       </c>
       <c r="W58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="X58" s="3">
         <v>29000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1295000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1298000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1099000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1147000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1556000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1228000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1114000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1235000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1227000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1277000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1255000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1294000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>980000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1051000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>957000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1044000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1058000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>952000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>926000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>983000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1109000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2265000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2181000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2129000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2093000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2287000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2135000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2345000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3094000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3156000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3181000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3233000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2185000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2228000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2120000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2106000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2046000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1858000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1827000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1846000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2031000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E61" s="3">
         <v>333000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>337000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>344000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>354000</v>
       </c>
       <c r="H61" s="3">
         <v>354000</v>
       </c>
       <c r="I61" s="3">
+        <v>354000</v>
+      </c>
+      <c r="J61" s="3">
         <v>642000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>548000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>575000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>593000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>618000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>632000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1444000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1646000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1668000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1688000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1712000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1046000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1134000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1145000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1156000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>934000</v>
+      </c>
+      <c r="E62" s="3">
         <v>975000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1165000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1287000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1309000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1371000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1426000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1469000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1467000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1472000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1500000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>411000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>401000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>415000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>421000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>427000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>451000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>476000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>490000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>501000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3427000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3489000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3537000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3638000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3734000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3950000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4148000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4319000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5138000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5216000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5271000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5365000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4040000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4275000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4203000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4233000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4203000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3355000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3437000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3481000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3688000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-617000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-343000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-444000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-356000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-409000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-427000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-484000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-89000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-144000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-204000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-180000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-173000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-160000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-220000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-236000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-273000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-221000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-314000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-338000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-453000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1438000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1862000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1841000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1960000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1880000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1795000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1717000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2135000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2173000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2127000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2082000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2106000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2126000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2197000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2156000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2157000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2120000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2042000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1975000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1954000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1852000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44555</v>
+      </c>
+      <c r="E80" s="2">
         <v>44464</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44282</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-274000</v>
+      </c>
+      <c r="E81" s="3">
         <v>101000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-35000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>53000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>57000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-394000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>45000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>55000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>41000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-52000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>86000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>27000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>158000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>229000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,19 +5414,20 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E83" s="3">
         <v>21000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>89000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>46000</v>
       </c>
       <c r="G83" s="3">
         <v>46000</v>
@@ -5238,55 +5436,58 @@
         <v>46000</v>
       </c>
       <c r="I83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="J83" s="3">
         <v>97000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>50000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>52000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>53000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>49000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>50000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>44000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>51000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>37000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>39000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>40000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>41000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E89" s="3">
         <v>171000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>75000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>86000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>309000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>180000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>188000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>152000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>212000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-58000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>60000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>61000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>304000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>45000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>217000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>282000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>34000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>102000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>36000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-14000</v>
       </c>
       <c r="H91" s="3">
         <v>-14000</v>
       </c>
       <c r="I91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-40000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-66000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-37000</v>
       </c>
       <c r="R91" s="3">
         <v>-37000</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>13000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>31000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21000</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-33000</v>
       </c>
       <c r="F94" s="3">
         <v>-33000</v>
       </c>
       <c r="G94" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-10000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>762000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>776000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>23000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-61000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-52000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-68000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-36000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-899000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-154000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>23000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-71000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-93000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6038,28 +6271,28 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-13000</v>
       </c>
       <c r="K96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="L96" s="3">
         <v>-14000</v>
       </c>
       <c r="M96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-13000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-14000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-14000</v>
       </c>
       <c r="Q96" s="3">
         <v>-14000</v>
@@ -6071,7 +6304,7 @@
         <v>-14000</v>
       </c>
       <c r="T96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="U96" s="3">
         <v>-13000</v>
@@ -6085,8 +6318,11 @@
       <c r="X96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-291000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-85000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-83000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-30000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-316000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-872000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-808000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-67000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-38000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-43000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-64000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-255000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-66000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-41000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>672000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-127000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-42000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-38000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-69000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>2000</v>
       </c>
       <c r="N101" s="3">
         <v>2000</v>
       </c>
       <c r="O101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P101" s="3">
         <v>-5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>3000</v>
       </c>
       <c r="U101" s="3">
         <v>3000</v>
       </c>
       <c r="V101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W101" s="3">
         <v>2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-10000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-216000</v>
+      </c>
+      <c r="E102" s="3">
         <v>62000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-38000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>64000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>144000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>110000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>144000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-160000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-54000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-267000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>177000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-27000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>138000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-188000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-136000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E7" s="2">
         <v>44555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44464</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44282</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2178000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2042000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2179000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4244000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2366000</v>
-      </c>
       <c r="H8" s="3">
+        <v>2174000</v>
+      </c>
+      <c r="I8" s="3">
         <v>2085000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2347000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4440000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2725000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2508000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2782000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2588000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2769000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2670000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2887000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2628000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2830000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2581000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2620000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2363000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2676000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2726000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1694000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1610000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1675000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3317000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1832000</v>
-      </c>
       <c r="H9" s="3">
+        <v>3511000</v>
+      </c>
+      <c r="I9" s="3">
         <v>3426000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1800000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3486000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2096000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1937000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2115000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2003000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2128000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2068000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2201000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2032000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2163000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3948000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3974000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3636000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4002000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2072000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E10" s="3">
         <v>432000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>504000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>927000</v>
       </c>
-      <c r="G10" s="3">
-        <v>534000</v>
-      </c>
       <c r="H10" s="3">
+        <v>-1337000</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1341000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>547000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>954000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>629000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>571000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>667000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>585000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>641000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>602000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>686000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>596000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>667000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>654000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1016,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,79 +1162,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>16000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>18000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>37000</v>
       </c>
-      <c r="G14" s="3">
-        <v>26000</v>
-      </c>
       <c r="H14" s="3">
+        <v>38000</v>
+      </c>
+      <c r="I14" s="3">
         <v>20000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>34000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>242000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>28000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>27000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>85000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>43000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>74000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>14000</v>
       </c>
       <c r="R14" s="3">
         <v>14000</v>
       </c>
       <c r="S14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="T14" s="3">
         <v>17000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>35000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>22000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>21000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>20000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>48000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2102000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2011000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2075000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4145000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2311000</v>
-      </c>
       <c r="H17" s="3">
+        <v>2105000</v>
+      </c>
+      <c r="I17" s="3">
         <v>2065000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2245000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4568000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2645000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2434000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2674000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2603000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2745000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2661000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2782000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2580000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2753000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2526000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2515000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2322000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2552000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2668000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E18" s="3">
         <v>31000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>104000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>99000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>69000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>102000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>80000</v>
+      </c>
+      <c r="M18" s="3">
+        <v>74000</v>
+      </c>
+      <c r="N18" s="3">
+        <v>108000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="P18" s="3">
+        <v>24000</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>9000</v>
+      </c>
+      <c r="R18" s="3">
+        <v>105000</v>
+      </c>
+      <c r="S18" s="3">
+        <v>48000</v>
+      </c>
+      <c r="T18" s="3">
+        <v>77000</v>
+      </c>
+      <c r="U18" s="3">
         <v>55000</v>
       </c>
-      <c r="H18" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="V18" s="3">
+        <v>105000</v>
+      </c>
+      <c r="W18" s="3">
+        <v>41000</v>
+      </c>
+      <c r="X18" s="3">
+        <v>124000</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>58000</v>
+      </c>
+      <c r="Z18" s="3">
         <v>102000</v>
       </c>
-      <c r="J18" s="3">
-        <v>-128000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>74000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>108000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>24000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>9000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>105000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>48000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>77000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>55000</v>
-      </c>
-      <c r="U18" s="3">
-        <v>105000</v>
-      </c>
-      <c r="V18" s="3">
-        <v>41000</v>
-      </c>
-      <c r="W18" s="3">
-        <v>124000</v>
-      </c>
-      <c r="X18" s="3">
-        <v>58000</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,49 +1513,50 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2000</v>
       </c>
       <c r="I20" s="3">
         <v>2000</v>
       </c>
       <c r="J20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>7000</v>
       </c>
       <c r="N20" s="3">
         <v>7000</v>
       </c>
       <c r="O20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P20" s="3">
         <v>8000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>11000</v>
       </c>
       <c r="Q20" s="3">
         <v>11000</v>
@@ -1531,312 +1565,327 @@
         <v>11000</v>
       </c>
       <c r="S20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>8000</v>
       </c>
       <c r="V20" s="3">
         <v>8000</v>
       </c>
       <c r="W20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="X20" s="3">
         <v>10000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E21" s="3">
         <v>73000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>128000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>204000</v>
       </c>
-      <c r="G21" s="3">
-        <v>112000</v>
-      </c>
       <c r="H21" s="3">
+        <v>126000</v>
+      </c>
+      <c r="I21" s="3">
         <v>68000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>150000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-25000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>133000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>145000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>167000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>45000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>81000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>70000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>160000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>110000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>131000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>107000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>150000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>88000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>174000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>104000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
         <v>8000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>22000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>23000</v>
       </c>
       <c r="O22" s="3">
         <v>23000</v>
       </c>
       <c r="P22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>30000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>31000</v>
       </c>
       <c r="R22" s="3">
         <v>31000</v>
       </c>
       <c r="S22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="T22" s="3">
         <v>29000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>23000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>14000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>17000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E23" s="3">
         <v>29000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>102000</v>
       </c>
-      <c r="G23" s="3">
-        <v>59000</v>
-      </c>
       <c r="H23" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I23" s="3">
         <v>14000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>98000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-150000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>66000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>74000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>93000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-31000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>85000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>28000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>55000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>41000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>35000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>121000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>46000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20000</v>
       </c>
-      <c r="G24" s="3">
-        <v>6000</v>
-      </c>
       <c r="H24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-17000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>64000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-22000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>25000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>158000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>47000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E26" s="3">
         <v>32000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>73000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>82000</v>
       </c>
-      <c r="G26" s="3">
-        <v>53000</v>
-      </c>
       <c r="H26" s="3">
+        <v>63000</v>
+      </c>
+      <c r="I26" s="3">
         <v>31000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>34000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-128000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>45000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>55000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-24000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>33000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-117000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>98000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>21000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>74000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>55000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E27" s="3">
         <v>32000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>73000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>82000</v>
       </c>
-      <c r="G27" s="3">
-        <v>53000</v>
-      </c>
       <c r="H27" s="3">
+        <v>63000</v>
+      </c>
+      <c r="I27" s="3">
         <v>31000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>34000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-128000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>45000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>55000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-24000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>33000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-117000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>98000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>21000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>74000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>55000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,38 +2177,41 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-306000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>28000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-117000</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="I29" s="3">
-        <v>23000</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-266000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2167,31 +2228,34 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-3000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>8000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>65000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-12000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>6000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>84000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>174000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,49 +2399,52 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2000</v>
       </c>
       <c r="I32" s="3">
         <v>-2000</v>
       </c>
       <c r="J32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-7000</v>
       </c>
       <c r="N32" s="3">
         <v>-7000</v>
       </c>
       <c r="O32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-11000</v>
       </c>
       <c r="Q32" s="3">
         <v>-11000</v>
@@ -2383,99 +2453,105 @@
         <v>-11000</v>
       </c>
       <c r="S32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-8000</v>
       </c>
       <c r="V32" s="3">
         <v>-8000</v>
       </c>
       <c r="W32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="X32" s="3">
         <v>-10000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-274000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>101000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>53000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>57000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-394000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>55000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-24000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>41000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-52000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>86000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>27000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>158000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>229000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-274000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>101000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>53000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>57000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-394000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>55000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-24000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>41000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-52000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>86000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>27000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>158000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>229000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E38" s="2">
         <v>44555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44464</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2832,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E41" s="3">
         <v>514000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>753000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>691000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>753000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>729000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>743000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>762000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>842000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>698000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>588000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>444000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>604000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>658000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>925000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>747000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>737000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>622000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>788000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>763000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>744000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>763000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,322 +2978,337 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E43" s="3">
         <v>511000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>499000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>699000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>704000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>457000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>678000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>698000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>850000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1642000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1744000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1732000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1780000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>885000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>950000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>905000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>942000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>931000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>693000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>652000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>688000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>687000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>866000</v>
+      </c>
+      <c r="E44" s="3">
         <v>859000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>841000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>957000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>929000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>916000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1005000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>929000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1032000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1025000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1113000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1034000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1065000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1023000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1122000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1033000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1093000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1110000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1228000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1179000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1279000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E45" s="3">
         <v>505000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>783000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>64000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>58000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>253000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>59000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>60000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>75000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>103000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>84000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>75000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>112000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>142000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>216000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>225000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>241000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>269000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>313000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>244000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2053000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2389000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2876000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2411000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2444000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2355000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2480000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2525000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2700000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3447000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3460000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3389000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3502000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2683000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3010000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2916000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2928000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2871000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2832000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2912000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2924000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2973000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E47" s="3">
         <v>8000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>13000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>14000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>15000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>14000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17000</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
@@ -3214,179 +3319,188 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>842000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>847000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>853000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>858000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>863000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>869000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>874000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>879000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>885000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1413000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1440000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1586000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1642000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1649000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1811000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1884000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2019000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2092000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2073000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2106000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2128000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>763000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>744000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>722000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>713000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>725000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>627000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>580000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>586000</v>
-      </c>
-      <c r="X48" s="3">
-        <v>601000</v>
       </c>
       <c r="Y48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E49" s="3">
         <v>518000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>519000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>916000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1034000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>451000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>965000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>956000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1319000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1332000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1333000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1345000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1331000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1336000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1342000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1319000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1330000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1299000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>413000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>395000</v>
       </c>
       <c r="W49" s="3">
         <v>395000</v>
       </c>
       <c r="X49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="Y49" s="3">
         <v>396000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E52" s="3">
         <v>537000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>506000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>452000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>464000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1144000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>475000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>483000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>416000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>440000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>477000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>513000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>510000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>542000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>529000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>549000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>561000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>565000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>656000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>651000</v>
       </c>
       <c r="W52" s="3">
         <v>651000</v>
       </c>
       <c r="X52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="Y52" s="3">
         <v>685000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4529000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4865000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5351000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5378000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5598000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5614000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5745000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5865000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6454000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7311000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7343000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7353000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7471000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6166000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6472000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6359000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6390000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6323000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5397000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5412000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5435000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5540000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,434 +3924,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>975000</v>
+      </c>
+      <c r="E57" s="3">
         <v>950000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>863000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>979000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>959000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>857000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1038000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>991000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1006000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1026000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1037000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1089000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1098000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1110000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1085000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1066000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>969000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>892000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>889000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>873000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>835000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>893000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="E58" s="3">
         <v>20000</v>
       </c>
       <c r="F58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G58" s="3">
         <v>22000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>23000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>48000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>30000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>104000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>841000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>842000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>837000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>841000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>95000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>92000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>97000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>93000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>96000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>28000</v>
       </c>
       <c r="W58" s="3">
         <v>28000</v>
       </c>
       <c r="X58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>29000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1295000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1298000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1099000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1147000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1556000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1228000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1114000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1235000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1227000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1277000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1255000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1294000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>980000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1051000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>957000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1044000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1058000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>952000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>926000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>983000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1109000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1966000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2265000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2181000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2129000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2093000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2287000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2135000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2345000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3094000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3156000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3181000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3233000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2185000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2228000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2120000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2106000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2046000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1858000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1827000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1846000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2031000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E61" s="3">
         <v>228000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>333000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>337000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>344000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>354000</v>
       </c>
       <c r="I61" s="3">
         <v>354000</v>
       </c>
       <c r="J61" s="3">
+        <v>354000</v>
+      </c>
+      <c r="K61" s="3">
         <v>642000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>548000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>575000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>593000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>618000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>632000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1444000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1646000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1668000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1688000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1712000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1046000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1134000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1145000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1156000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>890000</v>
+      </c>
+      <c r="E62" s="3">
         <v>934000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>975000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1165000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1287000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1309000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1371000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1426000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1469000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1467000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1472000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1500000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>411000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>401000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>415000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>421000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>427000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>451000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>476000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>490000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>501000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3037000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3427000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3489000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3537000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3638000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3734000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3950000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4148000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4319000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5138000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5216000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5271000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5365000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4040000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4275000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4203000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4233000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4203000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3355000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3437000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3481000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3688000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-562000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-617000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-343000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-444000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-356000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-409000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-427000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-484000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-89000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-144000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-204000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-180000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-173000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-160000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-220000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-236000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-273000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-221000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-314000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-338000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-453000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1492000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1438000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1862000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1841000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1960000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1880000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1795000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1717000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2135000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2173000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2127000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2082000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2106000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2126000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2197000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2156000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2157000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2120000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2042000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1975000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1954000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1852000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44646</v>
+      </c>
+      <c r="E80" s="2">
         <v>44555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44464</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44282</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-274000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>101000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>53000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>57000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-394000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>55000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-24000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>41000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-52000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>86000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>27000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>158000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>229000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,22 +5613,23 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E83" s="3">
         <v>36000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>89000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>46000</v>
       </c>
       <c r="H83" s="3">
         <v>46000</v>
@@ -5439,55 +5638,58 @@
         <v>46000</v>
       </c>
       <c r="J83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K83" s="3">
         <v>97000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>50000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>53000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>49000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>50000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>44000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>47000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>51000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>37000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>39000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>40000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>41000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E89" s="3">
         <v>100000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>171000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>75000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>86000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>309000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>180000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>188000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>152000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>212000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-58000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>60000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>61000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>304000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>45000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>217000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>40000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>282000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>34000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>102000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>36000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6159,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-14000</v>
       </c>
       <c r="I91" s="3">
         <v>-14000</v>
       </c>
       <c r="J91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-40000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-37000</v>
       </c>
       <c r="S91" s="3">
         <v>-37000</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>13000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-30000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>31000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-33000</v>
       </c>
       <c r="G94" s="3">
         <v>-33000</v>
       </c>
       <c r="H94" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-10000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>762000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>776000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>23000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-61000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-52000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-76000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-36000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-899000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-154000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>23000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-71000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-93000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6274,28 +6508,28 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-13000</v>
       </c>
       <c r="L96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="M96" s="3">
         <v>-14000</v>
       </c>
       <c r="N96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-13000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-14000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-14000</v>
       </c>
       <c r="R96" s="3">
         <v>-14000</v>
@@ -6307,7 +6541,7 @@
         <v>-14000</v>
       </c>
       <c r="U96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="V96" s="3">
         <v>-13000</v>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6777,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-291000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-85000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-83000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-30000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-316000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-872000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-808000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-67000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-38000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-43000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-64000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-255000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-52000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-66000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-41000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>672000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-127000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-42000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-38000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-69000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>2000</v>
       </c>
       <c r="O101" s="3">
         <v>2000</v>
       </c>
       <c r="P101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>3000</v>
       </c>
       <c r="V101" s="3">
         <v>3000</v>
       </c>
       <c r="W101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X101" s="3">
         <v>2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-216000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>62000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-38000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>64000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>144000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>110000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>144000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-160000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-54000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-267000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>177000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-27000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>138000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-188000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>18000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-136000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,345 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E7" s="2">
         <v>44646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44464</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44282</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2034000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2178000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2042000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2179000</v>
       </c>
-      <c r="G8" s="3">
-        <v>4244000</v>
-      </c>
       <c r="H8" s="3">
+        <v>2070000</v>
+      </c>
+      <c r="I8" s="3">
         <v>2174000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2085000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2347000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4440000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2725000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2508000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2782000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2588000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2769000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2670000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2887000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2628000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2830000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2581000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2620000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2363000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2676000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2726000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1603000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1694000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1610000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1675000</v>
       </c>
-      <c r="G9" s="3">
-        <v>3317000</v>
-      </c>
       <c r="H9" s="3">
+        <v>4955000</v>
+      </c>
+      <c r="I9" s="3">
         <v>3511000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3426000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1800000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3486000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2096000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1937000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2115000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2003000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2128000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2068000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2201000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2032000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2163000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3948000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3974000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3636000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4002000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2072000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E10" s="3">
         <v>484000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>432000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>504000</v>
       </c>
-      <c r="G10" s="3">
-        <v>927000</v>
-      </c>
       <c r="H10" s="3">
+        <v>-2885000</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1337000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1341000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>547000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>954000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>629000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>571000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>667000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>585000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>641000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>602000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>686000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>596000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>667000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>654000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1030,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,8 +1105,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1182,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1174,73 +1194,76 @@
         <v>3000</v>
       </c>
       <c r="E14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="3">
         <v>16000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>18000</v>
       </c>
-      <c r="G14" s="3">
-        <v>37000</v>
-      </c>
       <c r="H14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I14" s="3">
         <v>38000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>34000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>242000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>28000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>27000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>85000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>43000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>74000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>14000</v>
       </c>
       <c r="S14" s="3">
         <v>14000</v>
       </c>
       <c r="T14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="U14" s="3">
         <v>17000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>35000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>22000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>21000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>20000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>48000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2006000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2102000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2011000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2075000</v>
       </c>
-      <c r="G17" s="3">
-        <v>4145000</v>
-      </c>
       <c r="H17" s="3">
+        <v>2040000</v>
+      </c>
+      <c r="I17" s="3">
         <v>2105000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2065000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2245000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4568000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2645000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2434000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2674000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2603000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2745000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2661000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2782000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2580000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2753000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2526000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2515000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2322000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2552000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2668000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E18" s="3">
         <v>76000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>31000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>104000</v>
       </c>
-      <c r="G18" s="3">
-        <v>99000</v>
-      </c>
       <c r="H18" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I18" s="3">
         <v>69000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>102000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-128000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>80000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>108000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>105000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>48000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>77000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>55000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>105000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>41000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>124000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>58000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,52 +1547,53 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
-        <v>16000</v>
-      </c>
       <c r="H20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I20" s="3">
         <v>11000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2000</v>
       </c>
       <c r="J20" s="3">
         <v>2000</v>
       </c>
       <c r="K20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>7000</v>
       </c>
       <c r="O20" s="3">
         <v>7000</v>
       </c>
       <c r="P20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>11000</v>
       </c>
       <c r="R20" s="3">
         <v>11000</v>
@@ -1568,324 +1602,339 @@
         <v>11000</v>
       </c>
       <c r="T20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="U20" s="3">
         <v>7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>8000</v>
       </c>
       <c r="W20" s="3">
         <v>8000</v>
       </c>
       <c r="X20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>10000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E21" s="3">
         <v>113000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>73000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128000</v>
       </c>
-      <c r="G21" s="3">
-        <v>204000</v>
-      </c>
       <c r="H21" s="3">
+        <v>78000</v>
+      </c>
+      <c r="I21" s="3">
         <v>126000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>150000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-25000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>133000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>145000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>167000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>45000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>81000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>70000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>160000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>110000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>131000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>107000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>150000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>88000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>174000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>104000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7000</v>
       </c>
-      <c r="G22" s="3">
-        <v>13000</v>
-      </c>
       <c r="H22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I22" s="3">
         <v>7000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>22000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>23000</v>
       </c>
       <c r="P22" s="3">
         <v>23000</v>
       </c>
       <c r="Q22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="R22" s="3">
         <v>30000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>31000</v>
       </c>
       <c r="S22" s="3">
         <v>31000</v>
       </c>
       <c r="T22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="U22" s="3">
         <v>29000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>14000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>13000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>17000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E23" s="3">
         <v>74000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100000</v>
       </c>
-      <c r="G23" s="3">
-        <v>102000</v>
-      </c>
       <c r="H23" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I23" s="3">
         <v>73000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>98000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-150000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>66000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>93000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-31000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>85000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>28000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>55000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>41000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>35000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>121000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>46000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E24" s="3">
         <v>19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27000</v>
       </c>
-      <c r="G24" s="3">
-        <v>20000</v>
-      </c>
       <c r="H24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-17000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>64000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-22000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-7000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>158000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>47000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E26" s="3">
         <v>55000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>32000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>73000</v>
       </c>
-      <c r="G26" s="3">
-        <v>82000</v>
-      </c>
       <c r="H26" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I26" s="3">
         <v>63000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-128000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>55000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-24000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>33000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-117000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>98000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>21000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>74000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>55000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E27" s="3">
         <v>55000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>73000</v>
       </c>
-      <c r="G27" s="3">
-        <v>82000</v>
-      </c>
       <c r="H27" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I27" s="3">
         <v>63000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-128000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>55000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-24000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>33000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-117000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>98000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>21000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>74000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>55000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,41 +2238,44 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-306000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>28000</v>
       </c>
-      <c r="G29" s="3">
-        <v>-117000</v>
-      </c>
       <c r="H29" s="3">
+        <v>-225000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-10000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-13000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>23000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-266000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2231,31 +2292,34 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>8000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>65000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-12000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>6000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>84000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>174000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,52 +2469,55 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-16000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-11000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-2000</v>
       </c>
       <c r="J32" s="3">
         <v>-2000</v>
       </c>
       <c r="K32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-7000</v>
       </c>
       <c r="O32" s="3">
         <v>-7000</v>
       </c>
       <c r="P32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-11000</v>
       </c>
       <c r="R32" s="3">
         <v>-11000</v>
@@ -2456,102 +2526,108 @@
         <v>-11000</v>
       </c>
       <c r="T32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-8000</v>
       </c>
       <c r="W32" s="3">
         <v>-8000</v>
       </c>
       <c r="X32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E33" s="3">
         <v>55000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-274000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>101000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-35000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="I33" s="3">
         <v>53000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>57000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-394000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>55000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-24000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>41000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-52000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>86000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>27000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>158000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>229000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E35" s="3">
         <v>55000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-274000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>101000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-35000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="I35" s="3">
         <v>53000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>57000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-394000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>55000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-24000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>41000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-52000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>86000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>27000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>158000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>229000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E38" s="2">
         <v>44646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44464</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44282</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,82 +2919,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>417000</v>
+      </c>
+      <c r="E41" s="3">
         <v>557000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>514000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>753000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>691000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>753000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>729000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>743000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>762000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>842000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>698000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>588000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>444000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>604000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>658000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>925000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>747000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>737000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>622000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>788000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>763000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>744000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>763000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2981,337 +3071,352 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E43" s="3">
         <v>586000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>511000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>499000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>699000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>704000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>457000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>678000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>698000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>850000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1642000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1744000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1732000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1780000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>885000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>950000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>905000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>942000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>931000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>693000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>652000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>688000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>687000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>968000</v>
+      </c>
+      <c r="E44" s="3">
         <v>866000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>859000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>841000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>957000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>929000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>916000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1000000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1005000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>929000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1032000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1025000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1113000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1034000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1065000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1023000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1122000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1033000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1093000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1110000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1228000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1179000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1279000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E45" s="3">
         <v>44000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>505000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>783000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>64000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>58000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>253000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>59000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>79000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>75000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>103000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>84000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>75000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>112000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>142000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>216000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>225000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>241000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>269000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>313000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>244000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2011000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2053000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2389000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2876000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2411000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2444000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2355000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2480000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2525000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2700000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3447000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3460000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3389000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3502000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2683000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3010000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2916000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2928000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2871000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2832000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2912000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2924000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2973000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>13000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>14000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>15000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17000</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
@@ -3322,37 +3427,40 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>842000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>847000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>853000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>858000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>863000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>869000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>874000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>879000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>885000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3360,147 +3468,153 @@
         <v>1365000</v>
       </c>
       <c r="E48" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1413000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1440000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1586000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1642000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1649000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1811000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1884000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2019000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2092000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2073000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2106000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2128000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>763000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>744000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>722000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>713000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>725000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>627000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>580000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>586000</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>601000</v>
       </c>
       <c r="Z48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E49" s="3">
         <v>516000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>518000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>519000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>916000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1034000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>451000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>965000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>956000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1319000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1332000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1333000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1345000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1331000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1336000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1342000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1319000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1330000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1299000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>413000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>395000</v>
       </c>
       <c r="X49" s="3">
         <v>395000</v>
       </c>
       <c r="Y49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="Z49" s="3">
         <v>396000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,82 +3764,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E52" s="3">
         <v>590000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>537000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>506000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>452000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>464000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1144000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>475000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>483000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>416000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>440000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>477000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>513000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>510000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>542000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>529000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>549000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>561000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>565000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>656000</v>
-      </c>
-      <c r="W52" s="3">
-        <v>651000</v>
       </c>
       <c r="X52" s="3">
         <v>651000</v>
       </c>
       <c r="Y52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="Z52" s="3">
         <v>685000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4474000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4529000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4865000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5351000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5378000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5598000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5614000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5745000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5865000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6454000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7311000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7343000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7353000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7471000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6166000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6472000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6359000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6390000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6323000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5397000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5412000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5435000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5540000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,452 +4055,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>917000</v>
+      </c>
+      <c r="E57" s="3">
         <v>975000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>950000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>863000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>979000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>959000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>857000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1038000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>991000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1006000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1026000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1037000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1089000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1098000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1110000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1085000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1066000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>969000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>892000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>889000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>873000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>835000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>893000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E58" s="3">
         <v>18000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>20000</v>
       </c>
       <c r="F58" s="3">
         <v>20000</v>
       </c>
       <c r="G58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H58" s="3">
         <v>22000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>48000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>104000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>841000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>842000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>837000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>841000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>95000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>92000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>97000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>93000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>96000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>17000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>28000</v>
       </c>
       <c r="X58" s="3">
         <v>28000</v>
       </c>
       <c r="Y58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>29000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>969000</v>
+      </c>
+      <c r="E59" s="3">
         <v>973000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1295000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1298000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1099000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1147000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1556000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1228000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1114000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1235000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1227000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1277000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1255000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1294000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>980000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1051000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>957000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1044000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1058000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>952000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>926000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>983000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1109000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1903000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1966000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2265000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2181000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2129000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2093000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2287000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2135000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2345000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3094000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3156000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3181000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3233000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2185000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2228000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2120000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2106000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2046000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1858000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1827000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1846000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2031000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E61" s="3">
         <v>181000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>228000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>333000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>337000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>344000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>354000</v>
       </c>
       <c r="J61" s="3">
         <v>354000</v>
       </c>
       <c r="K61" s="3">
+        <v>354000</v>
+      </c>
+      <c r="L61" s="3">
         <v>642000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>548000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>575000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>593000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>618000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>632000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1444000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1646000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1668000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1688000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1712000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1046000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1134000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1145000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1156000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>881000</v>
+      </c>
+      <c r="E62" s="3">
         <v>890000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>934000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>975000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1165000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1287000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1309000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1371000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1426000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1469000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1467000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1472000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1500000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>411000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>401000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>415000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>421000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>427000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>451000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>476000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>490000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>501000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2961000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3037000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3427000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3489000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3537000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3638000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3734000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3950000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4148000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4319000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5138000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5216000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5271000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5365000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4040000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4275000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4203000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4233000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4203000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3355000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3437000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3481000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3688000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-562000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-617000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-343000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-444000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-356000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-409000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-427000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-484000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-89000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-144000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-204000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-180000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-173000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-160000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-220000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-236000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-273000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-221000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-314000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-338000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-453000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1513000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1492000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1438000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1862000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1841000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1960000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1880000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1795000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1717000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2135000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2173000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2127000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2082000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2106000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2126000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2197000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2156000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2157000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2120000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2042000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1975000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1954000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1852000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E80" s="2">
         <v>44646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44464</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44282</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E81" s="3">
         <v>55000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-274000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>101000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-35000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-205000</v>
+      </c>
+      <c r="I81" s="3">
         <v>53000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>57000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-394000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>55000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-24000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>41000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-52000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>86000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>27000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>158000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>229000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,8 +5812,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5623,16 +5822,16 @@
         <v>34000</v>
       </c>
       <c r="E83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F83" s="3">
         <v>36000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21000</v>
       </c>
-      <c r="G83" s="3">
-        <v>89000</v>
-      </c>
       <c r="H83" s="3">
-        <v>46000</v>
+        <v>43000</v>
       </c>
       <c r="I83" s="3">
         <v>46000</v>
@@ -5641,55 +5840,58 @@
         <v>46000</v>
       </c>
       <c r="K83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="L83" s="3">
         <v>97000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>50000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>53000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>49000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>50000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>44000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>47000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>51000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>37000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>39000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>40000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>41000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E89" s="3">
         <v>30000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>171000</v>
       </c>
-      <c r="G89" s="3">
-        <v>75000</v>
-      </c>
       <c r="H89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I89" s="3">
         <v>86000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>309000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>180000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>188000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>152000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>212000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-58000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>60000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>61000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>304000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>45000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>217000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>40000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>282000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>34000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>102000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>36000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-29000</v>
-      </c>
       <c r="H91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-13000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-14000</v>
       </c>
       <c r="J91" s="3">
         <v>-14000</v>
       </c>
       <c r="K91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-40000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-66000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-37000</v>
       </c>
       <c r="T91" s="3">
         <v>-37000</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>13000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-25000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>31000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>53000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-33000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>762000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>776000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>23000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-52000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-68000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-76000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-36000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-899000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-154000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>23000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-71000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-93000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6511,28 +6745,28 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-13000</v>
       </c>
       <c r="M96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="N96" s="3">
         <v>-14000</v>
       </c>
       <c r="O96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-13000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-14000</v>
       </c>
       <c r="S96" s="3">
         <v>-14000</v>
@@ -6544,7 +6778,7 @@
         <v>-14000</v>
       </c>
       <c r="V96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="W96" s="3">
         <v>-13000</v>
@@ -6558,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,226 +7023,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-64000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-291000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-85000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-83000</v>
-      </c>
       <c r="H100" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-30000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-316000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-872000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-808000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-67000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-38000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-43000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-255000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-52000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-66000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-41000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>672000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-127000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-42000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-69000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
-        <v>3000</v>
-      </c>
       <c r="H101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>2000</v>
       </c>
       <c r="P101" s="3">
         <v>2000</v>
       </c>
       <c r="Q101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R101" s="3">
         <v>-5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>3000</v>
       </c>
       <c r="W101" s="3">
         <v>3000</v>
       </c>
       <c r="X101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Y101" s="3">
         <v>2000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E102" s="3">
         <v>20000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-216000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>62000</v>
       </c>
-      <c r="G102" s="3">
-        <v>-38000</v>
-      </c>
       <c r="H102" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="I102" s="3">
         <v>24000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>64000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>144000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>110000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>144000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-160000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-267000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>177000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-27000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>138000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-188000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>18000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-136000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,358 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E7" s="2">
         <v>44737</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44464</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44282</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2172000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2034000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2178000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2042000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2179000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2070000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2174000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2085000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2347000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4440000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2725000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2508000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2782000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2588000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2769000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2670000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2887000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2628000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2830000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2581000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2620000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2363000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2676000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2726000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1686000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1603000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1694000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1610000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1675000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4955000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3511000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3426000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1800000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3486000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2096000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1937000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2115000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2003000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2128000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2068000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2201000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2032000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2163000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3948000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3974000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3636000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4002000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2072000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E10" s="3">
         <v>431000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>484000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>432000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>504000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-2885000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1337000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1341000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>547000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>954000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>629000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>571000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>667000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>585000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>641000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>602000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>686000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>596000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>667000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>654000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,8 +1044,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1108,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,85 +1202,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3000</v>
+        <v>-3000</v>
       </c>
       <c r="E14" s="3">
         <v>3000</v>
       </c>
       <c r="F14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="3">
         <v>16000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>38000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>242000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>27000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>85000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>43000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>74000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>14000</v>
       </c>
       <c r="T14" s="3">
         <v>14000</v>
       </c>
       <c r="U14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="V14" s="3">
         <v>17000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>35000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>22000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>21000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>20000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>48000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1339,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1391,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2088000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2006000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2102000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2011000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2075000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2040000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2105000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2065000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2245000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4568000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2645000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2434000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2674000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2603000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2745000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2661000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2782000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2580000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2753000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2526000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2515000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2322000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2552000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2668000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E18" s="3">
         <v>28000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>76000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>31000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>104000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>69000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>102000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-128000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>80000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>108000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>105000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>48000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>77000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>55000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>105000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>41000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>124000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>58000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,55 +1581,56 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2000</v>
       </c>
       <c r="K20" s="3">
         <v>2000</v>
       </c>
       <c r="L20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>7000</v>
       </c>
       <c r="P20" s="3">
         <v>7000</v>
       </c>
       <c r="Q20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R20" s="3">
         <v>8000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>11000</v>
       </c>
       <c r="S20" s="3">
         <v>11000</v>
@@ -1605,336 +1639,351 @@
         <v>11000</v>
       </c>
       <c r="U20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="V20" s="3">
         <v>7000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>9000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>8000</v>
       </c>
       <c r="X20" s="3">
         <v>8000</v>
       </c>
       <c r="Y20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>10000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E21" s="3">
         <v>66000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>113000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>73000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>128000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>78000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>126000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>68000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>150000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>133000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>145000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>167000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>45000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>81000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>70000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>160000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>110000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>131000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>107000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>150000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>88000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>174000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>104000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>22000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>23000</v>
       </c>
       <c r="Q22" s="3">
         <v>23000</v>
       </c>
       <c r="R22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="S22" s="3">
         <v>30000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>31000</v>
       </c>
       <c r="T22" s="3">
         <v>31000</v>
       </c>
       <c r="U22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="V22" s="3">
         <v>29000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>13000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>17000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E23" s="3">
         <v>28000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>74000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>73000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-150000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>66000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>93000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>85000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>28000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>55000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>41000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>35000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>121000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>46000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E24" s="3">
         <v>8000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-17000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-22000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>22000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>158000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>14000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>47000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E26" s="3">
         <v>20000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>55000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>73000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>63000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-128000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>45000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>55000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>60000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>33000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-117000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>98000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>21000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>74000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>55000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E27" s="3">
         <v>20000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>55000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>73000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>63000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-128000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>45000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>55000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>33000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-117000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>98000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>21000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>74000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>55000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,44 +2299,47 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>7000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-306000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>28000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-225000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-10000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-13000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>23000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-266000</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2295,31 +2356,34 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>8000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>65000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-12000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>6000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>84000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>174000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,55 +2539,58 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2000</v>
       </c>
       <c r="K32" s="3">
         <v>-2000</v>
       </c>
       <c r="L32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-7000</v>
       </c>
       <c r="P32" s="3">
         <v>-7000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-11000</v>
       </c>
       <c r="S32" s="3">
         <v>-11000</v>
@@ -2529,105 +2599,111 @@
         <v>-11000</v>
       </c>
       <c r="U32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-7000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-8000</v>
       </c>
       <c r="X32" s="3">
         <v>-8000</v>
       </c>
       <c r="Y32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E33" s="3">
         <v>27000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>55000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-274000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>101000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-205000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>53000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-394000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>45000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>55000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>41000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-52000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>86000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>27000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>158000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>229000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E35" s="3">
         <v>27000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>55000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-274000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>101000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-205000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>53000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-394000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>45000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>55000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>41000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-52000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>86000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>27000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>158000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>229000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E38" s="2">
         <v>44737</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44464</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44282</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,85 +3006,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E41" s="3">
         <v>417000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>557000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>514000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>753000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>691000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>753000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>729000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>743000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>762000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>842000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>698000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>588000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>444000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>604000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>658000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>925000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>747000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>737000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>622000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>788000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>763000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>744000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>763000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3074,352 +3164,367 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E43" s="3">
         <v>577000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>586000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>511000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>499000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>699000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>704000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>457000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>678000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>698000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>850000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1642000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1744000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1732000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1780000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>885000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>950000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>905000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>942000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>931000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>693000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>652000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>688000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>687000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>890000</v>
+      </c>
+      <c r="E44" s="3">
         <v>968000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>866000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>859000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>841000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>957000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>929000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>916000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1005000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>929000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1032000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1025000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1113000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1034000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1065000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1023000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1122000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1033000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1093000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1110000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1228000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1179000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1279000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E45" s="3">
         <v>49000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>505000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>783000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>64000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>58000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>253000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>59000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>79000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>75000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>103000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>84000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>75000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>112000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>142000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>216000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>225000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>241000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>269000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>313000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>244000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2108000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2011000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2053000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2389000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2876000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2411000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2444000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2355000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2480000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2525000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2700000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3447000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3460000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3389000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3502000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2683000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3010000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2916000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2928000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2871000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2832000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2912000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2924000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2973000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>13000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>14000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>15000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17000</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
@@ -3430,191 +3535,200 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>842000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>847000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>853000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>858000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>863000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>869000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>874000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>879000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>885000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1365000</v>
+        <v>1244000</v>
       </c>
       <c r="E48" s="3">
         <v>1365000</v>
       </c>
       <c r="F48" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="G48" s="3">
         <v>1413000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1440000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1586000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1642000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1649000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1811000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1884000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2019000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2092000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2073000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2106000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2128000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>763000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>744000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>722000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>713000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>725000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>627000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>580000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>586000</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>601000</v>
       </c>
       <c r="AA48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E49" s="3">
         <v>514000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>516000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>518000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>519000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>916000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1034000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>451000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>965000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>956000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1319000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1332000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1333000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1345000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1331000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1336000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1342000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1319000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1330000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1299000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>413000</v>
-      </c>
-      <c r="X49" s="3">
-        <v>395000</v>
       </c>
       <c r="Y49" s="3">
         <v>395000</v>
       </c>
       <c r="Z49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="AA49" s="3">
         <v>396000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,85 +3884,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>552000</v>
+      </c>
+      <c r="E52" s="3">
         <v>580000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>590000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>537000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>506000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>452000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>464000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1144000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>475000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>483000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>416000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>440000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>477000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>513000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>510000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>542000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>529000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>549000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>561000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>565000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>656000</v>
-      </c>
-      <c r="X52" s="3">
-        <v>651000</v>
       </c>
       <c r="Y52" s="3">
         <v>651000</v>
       </c>
       <c r="Z52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="AA52" s="3">
         <v>685000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4044,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4418000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4474000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4529000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4865000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5351000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5378000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5598000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5614000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5745000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5865000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6454000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7311000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7343000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7353000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7471000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6166000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6472000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6359000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6390000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6323000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5397000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5412000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5435000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5540000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,470 +4186,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>853000</v>
+      </c>
+      <c r="E57" s="3">
         <v>917000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>975000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>950000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>863000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>979000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>959000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>857000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1038000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>991000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1006000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1026000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1037000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1089000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1098000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1110000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1085000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1066000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>969000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>892000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>889000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>873000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>835000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>893000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E58" s="3">
         <v>17000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>20000</v>
       </c>
       <c r="G58" s="3">
         <v>20000</v>
       </c>
       <c r="H58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I58" s="3">
         <v>22000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>23000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>48000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>30000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>104000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>841000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>842000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>837000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>841000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>95000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>92000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>97000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>93000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>96000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>17000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>28000</v>
       </c>
       <c r="Y58" s="3">
         <v>28000</v>
       </c>
       <c r="Z58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>29000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1024000</v>
+      </c>
+      <c r="E59" s="3">
         <v>969000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>973000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1295000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1298000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1099000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1147000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1556000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1228000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1114000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1235000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1227000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1277000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1255000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1294000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>980000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1051000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>957000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1044000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1058000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>952000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>926000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>983000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1109000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1893000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1903000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1966000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2265000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2181000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2129000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2093000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2287000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2135000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2345000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3094000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3156000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3181000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3233000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2185000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2228000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2120000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2106000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2046000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1858000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1827000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1846000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2031000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E61" s="3">
         <v>177000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>181000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>228000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>333000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>337000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>344000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>354000</v>
       </c>
       <c r="K61" s="3">
         <v>354000</v>
       </c>
       <c r="L61" s="3">
+        <v>354000</v>
+      </c>
+      <c r="M61" s="3">
         <v>642000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>548000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>575000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>593000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>618000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>632000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1444000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1646000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1668000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1688000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1712000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1046000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1134000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1145000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1156000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>851000</v>
+      </c>
+      <c r="E62" s="3">
         <v>881000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>890000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>934000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>975000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1165000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1287000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1309000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1371000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1426000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1469000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1467000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1472000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1500000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>411000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>401000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>415000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>421000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>427000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>451000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>476000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>490000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>501000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4904,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2919000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2961000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3037000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3427000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3489000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3537000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3638000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3734000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3950000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4148000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4319000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5138000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5216000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5271000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5365000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4040000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4275000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4203000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4233000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4203000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3355000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3437000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3481000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3688000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5334,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-468000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-535000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-562000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-617000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-343000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-444000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-356000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-409000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-427000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-484000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-45000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-89000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-144000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-204000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-180000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-173000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-160000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-220000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-236000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-273000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-221000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-314000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-338000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-453000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5654,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1513000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1492000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1438000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1862000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1841000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1960000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1880000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1795000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1717000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2135000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2173000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2127000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2082000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2106000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2126000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2197000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2156000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2157000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2120000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2042000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1975000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1954000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1852000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44828</v>
+      </c>
+      <c r="E80" s="2">
         <v>44737</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44464</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44282</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E81" s="3">
         <v>27000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>55000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-274000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>101000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-205000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>53000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-394000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>45000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>55000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>41000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-52000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>86000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>27000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>158000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>229000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,28 +6011,29 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="E83" s="3">
         <v>34000</v>
       </c>
       <c r="F83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="G83" s="3">
         <v>36000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>46000</v>
       </c>
       <c r="J83" s="3">
         <v>46000</v>
@@ -5843,55 +6042,58 @@
         <v>46000</v>
       </c>
       <c r="L83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="M83" s="3">
         <v>97000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>50000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>53000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>49000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>47000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>51000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>43000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>37000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>39000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>40000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>41000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-114000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>171000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>86000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>309000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>180000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>188000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>152000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>212000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>60000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>61000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>304000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>45000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>217000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>40000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>282000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>34000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>102000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>36000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6601,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-14000</v>
       </c>
       <c r="K91" s="3">
         <v>-14000</v>
       </c>
       <c r="L91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-40000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-46000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-66000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-37000</v>
       </c>
       <c r="U91" s="3">
         <v>-37000</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>13000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>31000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6839,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>53000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-33000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>762000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>776000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>23000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-52000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-68000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-76000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-36000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-899000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-154000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>23000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-71000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-93000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6748,28 +6982,28 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-13000</v>
       </c>
       <c r="N96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="O96" s="3">
         <v>-14000</v>
       </c>
       <c r="P96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-14000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-14000</v>
       </c>
       <c r="T96" s="3">
         <v>-14000</v>
@@ -6781,7 +7015,7 @@
         <v>-14000</v>
       </c>
       <c r="W96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="X96" s="3">
         <v>-13000</v>
@@ -6795,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,235 +7269,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-64000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-291000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-85000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-53000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-30000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-316000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-872000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-808000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-67000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-38000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-64000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-255000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-52000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-66000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-41000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>672000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-127000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-69000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>2000</v>
       </c>
       <c r="Q101" s="3">
         <v>2000</v>
       </c>
       <c r="R101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S101" s="3">
         <v>-5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="W101" s="3">
-        <v>3000</v>
       </c>
       <c r="X101" s="3">
         <v>3000</v>
       </c>
       <c r="Y101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Z101" s="3">
         <v>2000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-140000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-216000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>62000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-62000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>24000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>64000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>144000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>110000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>144000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-160000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-54000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-267000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>177000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-27000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>138000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-188000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>18000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-136000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,370 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44828</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44464</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44282</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2106000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2172000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2034000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2178000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2042000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2179000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2070000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2174000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2085000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2347000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4440000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2725000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2508000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2782000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2588000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2769000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2670000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2887000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2628000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2830000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2581000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2620000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2363000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2676000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2726000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1660000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1686000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1603000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1694000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1610000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1675000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4955000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3511000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3426000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1800000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3486000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2096000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1937000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2115000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2003000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2128000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2068000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2201000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2032000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2163000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3948000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3974000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3636000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4002000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2072000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E10" s="3">
         <v>486000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>431000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>484000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>432000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>504000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-2885000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1337000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1341000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>547000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>954000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>629000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>571000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>667000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>585000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>641000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>602000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>686000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>596000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>667000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>654000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1057,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1125,8 +1138,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,88 +1221,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3000</v>
       </c>
       <c r="F14" s="3">
         <v>3000</v>
       </c>
       <c r="G14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="3">
         <v>16000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>38000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>34000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>242000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>28000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>85000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>43000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>74000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>14000</v>
       </c>
       <c r="U14" s="3">
         <v>14000</v>
       </c>
       <c r="V14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="W14" s="3">
         <v>17000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>35000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>22000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>21000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>20000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>48000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1387,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,168 +1417,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2051000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2088000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2006000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2102000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2011000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2075000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2040000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2105000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2065000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2245000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4568000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2645000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2434000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2674000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2603000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2745000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2661000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2782000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2580000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2753000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2526000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2515000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2322000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2552000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2668000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E18" s="3">
         <v>84000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>28000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>76000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>31000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>104000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>69000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>102000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-128000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>80000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>74000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>108000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>105000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>48000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>77000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>55000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>105000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>41000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>124000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>58000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,58 +1614,59 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2000</v>
       </c>
       <c r="L20" s="3">
         <v>2000</v>
       </c>
       <c r="M20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>7000</v>
       </c>
       <c r="Q20" s="3">
         <v>7000</v>
       </c>
       <c r="R20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S20" s="3">
         <v>8000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>11000</v>
       </c>
       <c r="T20" s="3">
         <v>11000</v>
@@ -1642,348 +1675,363 @@
         <v>11000</v>
       </c>
       <c r="V20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="W20" s="3">
         <v>7000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>9000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>8000</v>
       </c>
       <c r="Y20" s="3">
         <v>8000</v>
       </c>
       <c r="Z20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AA20" s="3">
         <v>10000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>5000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E21" s="3">
         <v>122000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>66000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>113000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>73000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>128000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>78000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>126000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>68000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>150000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-25000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>133000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>145000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>167000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>45000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>81000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>70000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>160000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>110000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>131000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>107000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>150000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>88000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>174000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>104000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>28000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>22000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>23000</v>
       </c>
       <c r="R22" s="3">
         <v>23000</v>
       </c>
       <c r="S22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="T22" s="3">
         <v>30000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>31000</v>
       </c>
       <c r="U22" s="3">
         <v>31000</v>
       </c>
       <c r="V22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="W22" s="3">
         <v>29000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>23000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>13000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>14000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>13000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>17000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E23" s="3">
         <v>89000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>74000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>73000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>98000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-150000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>66000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>93000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>85000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>28000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>55000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>41000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>100000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>35000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>121000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>46000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>22000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>27000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-17000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>64000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-22000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>33000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-7000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>25000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>22000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>158000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>14000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>47000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,168 +2110,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E26" s="3">
         <v>67000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>20000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>55000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>73000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>63000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-128000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>45000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>55000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-24000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-14000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>60000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>33000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-117000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>98000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>21000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>74000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>55000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E27" s="3">
         <v>67000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>55000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>73000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>63000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-128000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>45000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>55000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-24000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-14000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>33000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-117000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>98000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>21000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>74000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>55000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,47 +2359,50 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-19000</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>7000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-306000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>28000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-225000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-10000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-13000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>23000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-266000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2359,31 +2419,34 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-3000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>8000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>65000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>6000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>84000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>174000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,58 +2608,61 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-2000</v>
       </c>
       <c r="L32" s="3">
         <v>-2000</v>
       </c>
       <c r="M32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-7000</v>
       </c>
       <c r="Q32" s="3">
         <v>-7000</v>
       </c>
       <c r="R32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-11000</v>
       </c>
       <c r="T32" s="3">
         <v>-11000</v>
@@ -2602,108 +2671,114 @@
         <v>-11000</v>
       </c>
       <c r="V32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-7000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-8000</v>
       </c>
       <c r="Y32" s="3">
         <v>-8000</v>
       </c>
       <c r="Z32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E33" s="3">
         <v>67000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>55000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-274000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>101000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-205000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>53000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>57000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-394000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>55000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-24000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-14000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>60000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>41000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-52000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>86000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>27000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>158000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>229000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2857,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E35" s="3">
         <v>67000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>55000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-274000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>101000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-205000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>53000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>57000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-394000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>55000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-24000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-14000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>60000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>41000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-52000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>86000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>27000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>158000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>229000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44828</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44737</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44464</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44282</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,88 +3092,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E41" s="3">
         <v>473000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>417000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>557000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>514000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>753000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>691000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>753000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>729000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>743000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>762000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>842000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>698000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>588000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>444000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>604000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>658000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>925000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>747000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>737000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>622000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>788000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>763000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>744000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>763000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3167,367 +3256,382 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E43" s="3">
         <v>601000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>577000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>586000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>511000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>499000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>699000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>704000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>457000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>678000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>698000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>850000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1642000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1744000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1732000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1780000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>885000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>950000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>905000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>942000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>931000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>693000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>652000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>688000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>687000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>828000</v>
+      </c>
+      <c r="E44" s="3">
         <v>890000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>968000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>866000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>859000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>841000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>957000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>929000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>916000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1000000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1005000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>929000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1032000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1025000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1113000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1034000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1065000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1023000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1122000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1033000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1093000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1110000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1228000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1179000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1279000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E45" s="3">
         <v>144000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>49000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>505000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>783000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>64000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>58000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>253000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>59000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>60000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>79000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>75000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>103000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>84000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>75000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>112000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>142000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>216000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>225000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>241000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>269000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>313000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>244000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1910000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2108000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2011000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2053000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2389000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2876000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2411000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2444000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2355000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2480000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2525000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2700000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3447000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3460000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3389000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3502000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2683000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3010000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2916000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2928000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2871000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2832000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2912000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2924000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2973000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17000</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
@@ -3538,197 +3642,206 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>842000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>847000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>853000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>858000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>863000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>869000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>874000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>879000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>885000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1226000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1244000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1365000</v>
       </c>
       <c r="F48" s="3">
         <v>1365000</v>
       </c>
       <c r="G48" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="H48" s="3">
         <v>1413000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1440000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1586000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1642000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1649000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1811000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1884000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2019000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2092000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2073000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2106000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2128000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>763000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>744000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>722000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>713000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>725000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>627000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>580000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>586000</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>601000</v>
       </c>
       <c r="AB48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E49" s="3">
         <v>511000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>514000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>516000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>518000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>519000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>916000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1034000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>451000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>965000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>956000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1319000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1332000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1333000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1345000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1331000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1336000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1342000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1319000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1330000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1299000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>413000</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>395000</v>
       </c>
       <c r="Z49" s="3">
         <v>395000</v>
       </c>
       <c r="AA49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="AB49" s="3">
         <v>396000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,88 +4003,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E52" s="3">
         <v>552000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>580000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>590000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>537000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>506000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>452000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>464000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1144000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>475000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>483000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>416000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>440000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>477000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>513000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>510000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>542000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>529000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>549000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>561000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>565000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>656000</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>651000</v>
       </c>
       <c r="Z52" s="3">
         <v>651000</v>
       </c>
       <c r="AA52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="AB52" s="3">
         <v>685000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4169,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4149000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4418000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4474000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4529000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4865000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5351000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5378000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5598000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5614000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5745000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5865000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6454000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7311000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7343000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7353000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7471000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6166000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6472000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6359000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6390000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6323000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5397000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5412000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5435000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5540000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,88 +4316,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>821000</v>
+      </c>
+      <c r="E57" s="3">
         <v>853000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>917000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>975000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>950000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>863000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>979000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>959000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>857000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1038000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>991000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1006000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1026000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1037000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1089000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1098000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1110000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1085000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1066000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>969000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>892000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>889000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>873000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>835000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>893000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4276,399 +4409,414 @@
         <v>16000</v>
       </c>
       <c r="E58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F58" s="3">
         <v>17000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>20000</v>
       </c>
       <c r="H58" s="3">
         <v>20000</v>
       </c>
       <c r="I58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J58" s="3">
         <v>22000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>23000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>104000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>841000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>842000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>837000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>841000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>95000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>92000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>97000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>93000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>96000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>17000</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>28000</v>
       </c>
       <c r="Z58" s="3">
         <v>28000</v>
       </c>
       <c r="AA58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AB58" s="3">
         <v>29000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1022000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1024000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>969000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>973000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1295000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1298000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1099000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1147000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1556000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1228000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1114000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1235000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1227000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1277000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1255000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1294000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>980000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1051000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>957000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1044000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1058000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>952000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>926000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>983000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1109000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1859000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1893000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1903000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1966000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2265000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2181000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2129000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2093000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2287000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2135000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2345000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3094000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3156000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3181000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3233000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2185000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2228000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2120000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2106000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2046000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1858000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1827000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1846000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2031000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E61" s="3">
         <v>175000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>177000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>181000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>228000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>333000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>337000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>344000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>354000</v>
       </c>
       <c r="L61" s="3">
         <v>354000</v>
       </c>
       <c r="M61" s="3">
+        <v>354000</v>
+      </c>
+      <c r="N61" s="3">
         <v>642000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>548000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>575000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>593000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>618000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>632000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1444000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1646000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1668000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1688000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1712000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1046000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1134000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1145000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1156000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>831000</v>
+      </c>
+      <c r="E62" s="3">
         <v>851000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>881000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>890000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>934000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>975000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1165000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1287000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1309000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1371000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1426000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1469000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1467000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1472000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1500000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>411000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>401000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>415000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>421000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>427000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>451000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>476000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>490000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>501000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5061,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2862000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2919000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2961000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3037000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3427000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3489000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3537000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3638000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3734000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3950000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4148000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4319000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5138000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5216000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5271000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5365000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4040000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4275000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4203000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4233000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4203000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3355000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3437000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3481000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3688000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5257,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5507,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-451000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-468000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-535000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-562000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-617000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-343000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-444000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-356000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-409000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-427000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-484000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-45000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-89000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-144000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-204000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-180000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-173000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-160000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-220000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-236000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-273000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-221000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-314000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-338000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-453000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +5839,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1287000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1499000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1513000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1492000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1438000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1862000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1841000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1960000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1880000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1795000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1717000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2135000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2173000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2127000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2082000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2106000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2126000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2197000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2156000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2157000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2120000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2042000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1975000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1954000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1852000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6005,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44828</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44737</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44464</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44282</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E81" s="3">
         <v>67000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>55000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-274000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>101000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-205000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>53000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>57000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-394000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>55000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-24000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-14000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>60000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>41000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-52000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>86000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>27000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>158000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>229000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,31 +6209,32 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E83" s="3">
         <v>32000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>34000</v>
       </c>
       <c r="F83" s="3">
         <v>34000</v>
       </c>
       <c r="G83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="H83" s="3">
         <v>36000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>46000</v>
       </c>
       <c r="K83" s="3">
         <v>46000</v>
@@ -6045,55 +6243,58 @@
         <v>46000</v>
       </c>
       <c r="M83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="N83" s="3">
         <v>97000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>49000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>50000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>52000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>53000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>49000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>50000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>47000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>51000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>43000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>37000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>39000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>40000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>41000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6705,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E89" s="3">
         <v>163000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-114000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>171000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>86000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>309000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>180000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>188000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>152000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>212000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-58000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>60000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>61000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>304000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>45000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>217000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>40000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>282000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>34000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>102000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>36000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,88 +6821,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-14000</v>
       </c>
       <c r="L91" s="3">
         <v>-14000</v>
       </c>
       <c r="M91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-40000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-46000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-66000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-37000</v>
       </c>
       <c r="V91" s="3">
         <v>-37000</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>13000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>31000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,88 +7068,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>53000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-33000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>762000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>776000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>23000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-61000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-52000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-68000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-76000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-36000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-899000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-154000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>23000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-71000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-93000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6985,28 +7218,28 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-13000</v>
       </c>
       <c r="O96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="P96" s="3">
         <v>-14000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-13000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-14000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-14000</v>
       </c>
       <c r="U96" s="3">
         <v>-14000</v>
@@ -7018,7 +7251,7 @@
         <v>-14000</v>
       </c>
       <c r="X96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="Y96" s="3">
         <v>-13000</v>
@@ -7032,8 +7265,11 @@
       <c r="AB96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,244 +7514,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-77000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-64000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-291000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-85000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-53000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-30000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-316000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-872000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-808000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-67000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-43000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-64000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-255000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-52000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-66000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-41000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>672000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-127000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-69000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>2000</v>
       </c>
       <c r="R101" s="3">
         <v>2000</v>
       </c>
       <c r="S101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T101" s="3">
         <v>-5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>3000</v>
       </c>
       <c r="Y101" s="3">
         <v>3000</v>
       </c>
       <c r="Z101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA101" s="3">
         <v>2000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E102" s="3">
         <v>57000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-140000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-216000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>62000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-62000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>24000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>64000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>144000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>110000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>144000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-160000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-54000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-267000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>177000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-27000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>138000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-188000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>18000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-136000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,395 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44828</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44737</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44464</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44282</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1908000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2108000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2106000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2172000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2034000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2178000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2042000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2179000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2070000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2174000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2085000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2347000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4440000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2725000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2508000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2782000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2588000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2769000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2670000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2887000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2628000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2830000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2581000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2620000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2363000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2676000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>2726000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1493000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1627000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1660000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1686000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1603000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1694000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1610000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1675000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4955000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3511000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3426000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1800000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3486000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2096000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1937000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2115000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2003000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2128000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2068000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2201000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2032000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2163000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>3948000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>3974000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>3636000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>4002000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>2072000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>481000</v>
+      </c>
+      <c r="F10" s="3">
         <v>446000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>486000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>431000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>484000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>432000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>504000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-2885000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-1337000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-1341000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>547000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>954000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>629000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>571000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>667000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>585000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>641000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>602000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>686000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>596000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>667000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>654000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,8 +1083,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1141,8 +1168,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,91 +1257,103 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>16000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>18000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>38000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>20000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>34000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>242000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>28000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>17000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>27000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>85000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>43000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>74000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>14000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>14000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>17000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>35000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>22000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>21000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>20000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>48000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1390,8 +1435,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,174 +1469,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1862000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2013000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2051000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2088000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2006000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2102000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2011000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2075000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2040000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2105000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2065000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2245000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4568000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2645000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2434000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2674000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2603000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2745000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2661000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2782000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2580000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2753000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2526000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2515000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2322000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2552000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>2668000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>95000</v>
+      </c>
+      <c r="F18" s="3">
         <v>55000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>84000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>28000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>76000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>31000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>104000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>30000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>69000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>20000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>102000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-128000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>80000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>74000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>108000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-15000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>24000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>9000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>105000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>48000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>77000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>55000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>105000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>41000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>124000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>58000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,423 +1680,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>6000</v>
       </c>
       <c r="I20" s="3">
         <v>3000</v>
       </c>
       <c r="J20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>21000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>8000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>11000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>11000</v>
       </c>
       <c r="V20" s="3">
         <v>11000</v>
       </c>
       <c r="W20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="X20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>7000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>9000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>8000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>8000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>10000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>5000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>129000</v>
+      </c>
+      <c r="F21" s="3">
         <v>89000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>122000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>66000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>113000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>73000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>128000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>78000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>126000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>68000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>150000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-25000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>133000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>145000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>167000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>45000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>81000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>70000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>160000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>110000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>131000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>107000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>150000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>88000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>174000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>104000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F22" s="3">
         <v>6000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>5000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>8000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>6000</v>
       </c>
       <c r="K22" s="3">
         <v>7000</v>
       </c>
       <c r="L22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N22" s="3">
         <v>8000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>6000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>28000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>18000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>21000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>22000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>23000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>23000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>30000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>31000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>31000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>29000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>23000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>13000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>14000</v>
       </c>
       <c r="AA22" s="3">
         <v>13000</v>
       </c>
       <c r="AB22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="AD22" s="3">
         <v>17000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F23" s="3">
         <v>52000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>89000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>28000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>74000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>29000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100000</v>
       </c>
       <c r="J23" s="3">
         <v>29000</v>
       </c>
       <c r="K23" s="3">
+        <v>100000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>29000</v>
+      </c>
+      <c r="M23" s="3">
         <v>73000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>14000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>98000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-150000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>66000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>74000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>93000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-31000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>9000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-10000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>85000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>28000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>55000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>41000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>100000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>35000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>121000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>46000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="E24" s="3">
         <v>22000</v>
       </c>
       <c r="F24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="H24" s="3">
         <v>8000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>19000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>27000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-17000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>64000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-22000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>21000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>19000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>33000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-7000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>25000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>9000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>22000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>158000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>2000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>14000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>47000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-9000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,174 +2210,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F26" s="3">
         <v>36000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>67000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>20000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>55000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>32000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>73000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>20000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>63000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>31000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>34000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-128000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>45000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>55000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>60000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-24000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>8000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-14000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>60000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>19000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>33000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-117000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>98000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>21000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>74000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>55000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F27" s="3">
         <v>36000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>67000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>20000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>55000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>32000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>73000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>20000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>63000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>31000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>34000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-128000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>45000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>55000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>60000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-24000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>8000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-14000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>60000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>19000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>33000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-117000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>98000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>21000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>74000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>55000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,53 +2477,59 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-19000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>7000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-306000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>28000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-225000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-10000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-13000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>23000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-266000</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2422,31 +2543,37 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-3000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>8000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>65000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>6000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>84000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>174000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AE29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2655,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,174 +2744,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-6000</v>
       </c>
       <c r="I32" s="3">
         <v>-3000</v>
       </c>
       <c r="J32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-11000</v>
       </c>
       <c r="V32" s="3">
         <v>-11000</v>
       </c>
       <c r="W32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-7000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F33" s="3">
         <v>17000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>67000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>27000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>55000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-274000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>101000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-205000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>53000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>18000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>57000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-394000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>45000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>55000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>60000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-24000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>8000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-14000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>60000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>16000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>41000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-52000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>86000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>27000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>158000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>229000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,179 +3011,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F35" s="3">
         <v>17000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>67000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>27000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>55000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-274000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>101000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-205000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>53000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>18000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>57000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-394000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>45000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>55000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>60000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-24000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>8000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-14000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>60000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>16000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>41000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-52000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>86000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>27000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>158000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>229000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44828</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44737</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44464</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44282</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3231,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,91 +3264,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>343000</v>
+      </c>
+      <c r="F41" s="3">
         <v>403000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>473000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>417000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>557000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>514000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>753000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>691000</v>
       </c>
       <c r="K41" s="3">
         <v>753000</v>
       </c>
       <c r="L41" s="3">
+        <v>691000</v>
+      </c>
+      <c r="M41" s="3">
+        <v>753000</v>
+      </c>
+      <c r="N41" s="3">
         <v>729000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>743000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>762000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>842000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>698000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>588000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>444000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>604000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>658000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>925000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>747000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>737000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>622000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>788000</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>763000</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>744000</v>
       </c>
       <c r="AB41" s="3">
         <v>763000</v>
       </c>
       <c r="AC41" s="3">
+        <v>744000</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>763000</v>
+      </c>
+      <c r="AE41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3259,385 +3438,415 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>529000</v>
+      </c>
+      <c r="F43" s="3">
         <v>544000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>601000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>577000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>586000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>511000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>499000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>699000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>704000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>457000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>678000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>698000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>850000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1642000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1744000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1732000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1780000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>885000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>950000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>905000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>942000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>931000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>693000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>652000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>688000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>687000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>836000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>793000</v>
+      </c>
+      <c r="F44" s="3">
         <v>828000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>890000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>968000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>866000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>859000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>841000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>957000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>929000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>916000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1000000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1005000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>929000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1032000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1025000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1113000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1034000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1065000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1023000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1122000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1033000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1093000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1110000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1228000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1179000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>1279000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>148000</v>
+      </c>
+      <c r="F45" s="3">
         <v>135000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>144000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>49000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>44000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>505000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>783000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>64000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>58000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>253000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>59000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>60000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>79000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>75000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>103000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>84000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>75000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>112000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>142000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>216000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>225000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>241000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>269000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>313000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>244000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1738000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1813000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1910000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2108000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2011000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2053000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2389000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2876000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2411000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2444000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2355000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2480000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2525000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2700000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3447000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3460000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3389000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3502000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2683000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3010000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2916000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2928000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2871000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2832000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2912000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2924000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>2973000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G47" s="3">
         <v>3000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>4000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>5000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>8000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>10000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>13000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>14000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>15000</v>
       </c>
       <c r="M47" s="3">
         <v>14000</v>
       </c>
       <c r="N47" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P47" s="3">
         <v>17000</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
@@ -3645,120 +3854,132 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>842000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>847000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>853000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>858000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>863000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>869000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>874000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>879000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>885000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1240000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1226000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1244000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1365000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1365000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1413000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1440000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1586000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1642000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1649000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1811000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1884000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2019000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2092000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2073000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2106000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2128000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>763000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>744000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>722000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>713000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>725000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>627000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>580000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>586000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>601000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>601000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3769,79 +3990,85 @@
         <v>511000</v>
       </c>
       <c r="F49" s="3">
+        <v>510000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>511000</v>
+      </c>
+      <c r="H49" s="3">
         <v>514000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>516000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>518000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>519000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>916000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1034000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>451000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>965000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>956000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1319000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1332000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1333000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1345000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1331000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1336000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1342000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1319000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1330000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1299000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>413000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>395000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>395000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>396000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4150,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,91 +4239,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>472000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>485000</v>
+      </c>
+      <c r="F52" s="3">
         <v>501000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>552000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>580000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>590000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>537000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>506000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>452000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>464000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1144000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>475000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>483000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>416000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>440000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>477000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>513000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>510000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>542000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>529000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>549000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>561000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>565000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>656000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>651000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>651000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>685000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,91 +4417,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3961000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4041000</v>
+      </c>
+      <c r="F54" s="3">
         <v>4149000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4418000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4474000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4529000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4865000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5351000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5378000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5598000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5614000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5745000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5865000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6454000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7311000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7343000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7353000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7471000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6166000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>6472000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6359000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6390000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>6323000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>5397000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>5412000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>5435000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>5540000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4543,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,340 +4576,366 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>864000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>903000</v>
+      </c>
+      <c r="F57" s="3">
         <v>821000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>853000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>917000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>975000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>950000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>863000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>979000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>959000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>857000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1038000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>991000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1006000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1026000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1037000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1089000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1098000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1110000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1085000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1066000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>969000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>892000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>889000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>873000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>835000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>893000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F58" s="3">
         <v>16000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>16000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>17000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>18000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>20000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>20000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>22000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>23000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>48000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>21000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>30000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>104000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>841000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>842000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>837000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>841000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>95000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>92000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>97000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>93000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>96000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>17000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>28000</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>28000</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>29000</v>
       </c>
       <c r="AC58" s="3">
         <v>28000</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>909000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>930000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1022000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1024000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>969000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>973000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1295000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1298000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1099000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1147000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1556000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1228000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1114000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1235000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1227000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1277000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1255000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1294000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>980000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1051000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>957000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1044000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1058000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>952000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>926000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>983000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1109000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1782000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1845000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1859000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1893000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1903000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1966000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2265000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2181000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2100000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2129000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2093000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2287000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2135000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2345000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3094000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3156000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3181000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3233000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2185000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2228000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2120000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2106000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2046000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1858000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1827000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1846000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>2031000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4658,165 +4943,177 @@
         <v>172000</v>
       </c>
       <c r="E61" s="3">
+        <v>210000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>172000</v>
+      </c>
+      <c r="G61" s="3">
         <v>175000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>177000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>181000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>228000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>333000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>337000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>344000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>354000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>354000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>642000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>548000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>575000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>593000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>618000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>632000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1444000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1646000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1668000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1688000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1712000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1046000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>1134000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1145000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>1156000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>846000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>838000</v>
+      </c>
+      <c r="F62" s="3">
         <v>831000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>851000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>881000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>890000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>934000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>975000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1100000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1165000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1287000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1309000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1371000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1426000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1469000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1467000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1472000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1500000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>411000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>401000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>415000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>421000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>427000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>451000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>476000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>490000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>501000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5195,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5284,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,91 +5373,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2893000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2862000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2919000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2961000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3037000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3427000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3489000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3537000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3638000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3734000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3950000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4148000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4319000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5138000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5216000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5271000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5365000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4040000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4275000</v>
-      </c>
-      <c r="V66" s="3">
-        <v>4203000</v>
-      </c>
-      <c r="W66" s="3">
-        <v>4233000</v>
       </c>
       <c r="X66" s="3">
         <v>4203000</v>
       </c>
       <c r="Y66" s="3">
+        <v>4233000</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>4203000</v>
+      </c>
+      <c r="AA66" s="3">
         <v>3355000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3437000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3481000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>3688000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5499,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5584,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5673,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5427,8 +5762,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,91 +5851,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-344000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-379000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-451000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-468000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-535000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-562000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-617000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-343000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-444000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-356000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-409000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-427000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-484000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-45000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-89000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-144000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-204000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-180000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-173000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-160000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-220000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-236000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-273000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-221000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-314000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-338000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-453000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +6029,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +6118,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,91 +6207,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1148000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1287000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1499000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1513000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1492000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1438000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1862000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1841000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1960000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1880000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1795000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1717000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2135000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2173000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2127000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2082000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2106000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2126000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2197000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2156000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2157000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>2120000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2042000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1975000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1954000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1852000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,179 +6385,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44828</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44737</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44464</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44282</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F81" s="3">
         <v>17000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>67000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>27000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>55000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-274000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>101000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-205000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>53000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>18000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>57000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-394000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>45000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>55000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>60000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-24000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>8000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-14000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>60000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>16000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>41000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-52000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>86000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>27000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>158000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>229000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,91 +6605,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F83" s="3">
         <v>31000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>32000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>34000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>34000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>36000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>21000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>43000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>46000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>46000</v>
       </c>
       <c r="M83" s="3">
         <v>46000</v>
       </c>
       <c r="N83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="P83" s="3">
         <v>97000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>49000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>50000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>52000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>53000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>49000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>50000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>44000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>47000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>51000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>43000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>37000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>39000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>40000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>41000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6779,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6868,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6957,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +7046,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +7135,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>157000</v>
+      </c>
+      <c r="F89" s="3">
         <v>158000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>163000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-114000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>30000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>100000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>171000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>86000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>309000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>180000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>188000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>152000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>212000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-58000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>60000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>61000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>304000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>45000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>217000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>40000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>282000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>34000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>102000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>36000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,91 +7261,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-31000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-25000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-22000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-21000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-26000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-14000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-14000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-40000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-25000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-32000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-45000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-46000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-66000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-47000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-37000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-37000</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>13000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-25000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>31000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7435,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,91 +7524,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-25000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-24000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>53000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-25000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-21000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-33000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-10000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-16000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>762000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>776000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>23000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-29000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-61000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-52000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-68000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-76000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-36000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-899000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-154000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>23000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-71000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-93000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7650,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7221,19 +7688,19 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-13000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-13000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-13000</v>
       </c>
       <c r="S96" s="3">
         <v>-14000</v>
@@ -7245,7 +7712,7 @@
         <v>-14000</v>
       </c>
       <c r="V96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="W96" s="3">
         <v>-14000</v>
@@ -7254,10 +7721,10 @@
         <v>-14000</v>
       </c>
       <c r="Y96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="Z96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="AA96" s="3">
         <v>-13000</v>
@@ -7268,8 +7735,14 @@
       <c r="AC96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7824,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7913,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,91 +8002,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-204000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-77000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-10000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-64000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-291000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-85000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-53000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-30000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-316000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-872000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-808000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-38000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-43000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-64000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-255000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-52000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-66000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-41000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>672000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-127000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-42000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-38000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-69000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7609,161 +8106,173 @@
         <v>1000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-12000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-1000</v>
       </c>
       <c r="R101" s="3">
         <v>2000</v>
       </c>
       <c r="S101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T101" s="3">
         <v>2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V101" s="3">
         <v>-5000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-2000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>2000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-10000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-70000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>57000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-140000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>20000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-216000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>62000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-62000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>24000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-14000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-21000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>64000</v>
-      </c>
-      <c r="O102" s="3">
-        <v>144000</v>
-      </c>
-      <c r="P102" s="3">
-        <v>110000</v>
       </c>
       <c r="Q102" s="3">
         <v>144000</v>
       </c>
       <c r="R102" s="3">
+        <v>110000</v>
+      </c>
+      <c r="S102" s="3">
+        <v>144000</v>
+      </c>
+      <c r="T102" s="3">
         <v>-160000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-54000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-267000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>177000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-27000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>138000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-188000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>4000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>18000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-136000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-175000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ODP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ODP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,408 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44828</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44737</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44464</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44282</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2009000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1908000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2108000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2106000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2172000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2034000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2178000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2042000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2179000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2070000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2174000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2085000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2347000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4440000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2725000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2508000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2782000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2588000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2769000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2670000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2887000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2628000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2830000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2581000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2620000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2363000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2676000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2726000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2836000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1493000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1627000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1660000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1686000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1603000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1694000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1610000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1675000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4955000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3511000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3426000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1800000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3486000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2096000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1937000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2115000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2003000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2128000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2068000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2201000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2032000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2163000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3948000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3974000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3636000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4002000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2072000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>2110000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>474000</v>
+      </c>
+      <c r="E10" s="3">
         <v>415000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>481000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>446000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>486000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>431000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>484000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>432000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>504000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-2885000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1337000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1341000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>547000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>954000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>629000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>571000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>667000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>585000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>641000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>602000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>686000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>596000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>667000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-1367000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-1354000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>-1273000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-1326000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>654000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>726000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,8 +1098,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1174,8 +1188,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,97 +1280,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3000</v>
       </c>
       <c r="I14" s="3">
         <v>3000</v>
       </c>
       <c r="J14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K14" s="3">
         <v>16000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>38000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>20000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>34000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>242000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>28000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>27000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>85000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>43000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>74000</v>
-      </c>
-      <c r="W14" s="3">
-        <v>14000</v>
       </c>
       <c r="X14" s="3">
         <v>14000</v>
       </c>
       <c r="Y14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="Z14" s="3">
         <v>17000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>35000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>22000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>21000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>20000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>48000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1441,8 +1464,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1497,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1918000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1862000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2013000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2051000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2088000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2006000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2102000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2011000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2075000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2040000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2105000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2065000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2245000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4568000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2645000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2434000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2674000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2603000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2745000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2661000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2782000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2580000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2753000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2526000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2515000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2322000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2552000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2668000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2734000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E18" s="3">
         <v>46000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>55000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>84000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>76000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>31000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>104000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>69000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>102000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>80000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>108000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-15000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>24000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>9000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>105000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>48000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>77000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>55000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>105000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>41000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>124000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>58000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>102000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1682,8 +1715,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1691,58 +1725,58 @@
         <v>6000</v>
       </c>
       <c r="E20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2000</v>
       </c>
       <c r="O20" s="3">
         <v>2000</v>
       </c>
       <c r="P20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>21000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>7000</v>
       </c>
       <c r="T20" s="3">
         <v>7000</v>
       </c>
       <c r="U20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V20" s="3">
         <v>8000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>11000</v>
       </c>
       <c r="W20" s="3">
         <v>11000</v>
@@ -1751,117 +1785,123 @@
         <v>11000</v>
       </c>
       <c r="Y20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>7000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>9000</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>8000</v>
       </c>
       <c r="AB20" s="3">
         <v>8000</v>
       </c>
       <c r="AC20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="AD20" s="3">
         <v>10000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>5000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E21" s="3">
         <v>81000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>129000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>89000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>122000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>66000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>113000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>73000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>78000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>126000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>68000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>150000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>133000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>145000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>167000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>45000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>81000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>70000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>160000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>110000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>131000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>107000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>150000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>88000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>174000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>104000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1872,263 +1912,272 @@
         <v>5000</v>
       </c>
       <c r="F22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="3">
         <v>6000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>28000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>22000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>23000</v>
       </c>
       <c r="U22" s="3">
         <v>23000</v>
       </c>
       <c r="V22" s="3">
+        <v>23000</v>
+      </c>
+      <c r="W22" s="3">
         <v>30000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>31000</v>
       </c>
       <c r="X22" s="3">
         <v>31000</v>
       </c>
       <c r="Y22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>29000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>23000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>13000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>14000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>13000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>17000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E23" s="3">
         <v>47000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>94000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>89000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>74000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-150000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>66000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>74000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>93000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-31000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-10000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>85000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>28000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>55000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>41000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>100000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>35000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>121000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>46000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E24" s="3">
         <v>13000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-17000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>64000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>33000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>25000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>9000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>22000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>158000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>14000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>47000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-9000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-240000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2216,186 +2265,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E26" s="3">
         <v>34000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>72000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>67000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>55000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>73000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>34000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>55000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-24000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-14000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>60000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>19000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>33000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-117000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>98000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>21000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>74000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>55000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E27" s="3">
         <v>34000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>72000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>67000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>55000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>73000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>63000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>55000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-24000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-14000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>60000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>19000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>33000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-117000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>98000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>21000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>74000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>55000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>330000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,8 +2541,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2495,44 +2556,44 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-19000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>7000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-306000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>28000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-225000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-10000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-13000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>23000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-266000</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2549,31 +2610,34 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>8000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>65000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-12000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>6000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>84000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>174000</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2725,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,8 +2817,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2759,58 +2829,58 @@
         <v>-6000</v>
       </c>
       <c r="E32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-2000</v>
       </c>
       <c r="O32" s="3">
         <v>-2000</v>
       </c>
       <c r="P32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-21000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-7000</v>
       </c>
       <c r="T32" s="3">
         <v>-7000</v>
       </c>
       <c r="U32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-8000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-11000</v>
       </c>
       <c r="W32" s="3">
         <v>-11000</v>
@@ -2819,117 +2889,123 @@
         <v>-11000</v>
       </c>
       <c r="Y32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-9000</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>-8000</v>
       </c>
       <c r="AB32" s="3">
         <v>-8000</v>
       </c>
       <c r="AC32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-10000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-5000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E33" s="3">
         <v>34000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>72000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>67000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>55000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-274000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>101000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-205000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>53000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>57000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-394000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>55000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-24000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-14000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>60000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>16000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>41000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-52000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>86000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>27000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>158000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>229000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3093,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E35" s="3">
         <v>34000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>72000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>67000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>55000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-274000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>101000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-205000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>53000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>57000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-394000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>55000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-24000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-14000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>60000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>16000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>41000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-52000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>86000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>27000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>158000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>229000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44828</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44737</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44464</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44282</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3318,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,97 +3352,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E41" s="3">
         <v>335000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>343000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>403000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>473000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>417000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>557000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>514000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>753000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>691000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>753000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>729000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>743000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>762000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>842000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>698000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>588000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>444000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>604000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>658000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>925000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>747000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>737000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>622000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>788000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>763000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>744000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>763000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>801000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3444,364 +3534,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E43" s="3">
         <v>521000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>529000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>544000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>601000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>577000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>586000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>511000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>499000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>699000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>704000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>457000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>678000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>698000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>850000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1642000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1744000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1732000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1780000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>885000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>950000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>905000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>942000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>931000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>693000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>652000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>688000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>687000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>718000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>782000</v>
+      </c>
+      <c r="E44" s="3">
         <v>836000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>793000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>828000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>890000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>968000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>866000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>859000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>841000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>957000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>929000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>916000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1000000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1005000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>929000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1032000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1025000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1113000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1034000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1065000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1023000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1122000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1033000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1093000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1110000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1228000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1179000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1279000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1216000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E45" s="3">
         <v>46000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>148000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>135000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>144000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>49000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>505000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>783000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>64000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>58000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>253000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>59000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>79000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>75000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>103000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>84000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>75000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>112000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>142000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>216000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>225000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>241000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>269000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>313000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>244000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>665000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1738000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1813000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1910000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2108000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2011000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2053000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2389000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2876000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2411000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2444000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2355000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2480000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2525000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2700000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3447000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3460000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3389000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3502000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2683000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3010000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2916000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2928000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2871000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2832000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2912000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2924000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2973000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>3400000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3809,47 +3914,47 @@
         <v>1000</v>
       </c>
       <c r="E47" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="3">
         <v>2000</v>
       </c>
       <c r="G47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H47" s="3">
         <v>3000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17000</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
@@ -3860,126 +3965,132 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>842000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>847000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>853000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>858000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>863000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>869000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>874000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>879000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>885000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>890000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1303000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1240000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1230000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1226000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1244000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1365000</v>
       </c>
       <c r="I48" s="3">
         <v>1365000</v>
       </c>
       <c r="J48" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1413000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1440000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1586000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1642000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1649000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1811000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1884000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2019000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2092000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2073000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2106000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2128000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>763000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>744000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>722000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>713000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>725000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>627000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>580000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>586000</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>601000</v>
       </c>
       <c r="AE48" s="3">
         <v>601000</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>601000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3987,88 +4098,91 @@
         <v>510000</v>
       </c>
       <c r="E49" s="3">
+        <v>510000</v>
+      </c>
+      <c r="F49" s="3">
         <v>511000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>510000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>511000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>514000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>516000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>518000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>519000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>916000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1034000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>451000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>965000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>956000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1319000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1332000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1333000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1345000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1331000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1336000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1342000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1319000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1330000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1299000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>413000</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>395000</v>
       </c>
       <c r="AC49" s="3">
         <v>395000</v>
       </c>
       <c r="AD49" s="3">
+        <v>395000</v>
+      </c>
+      <c r="AE49" s="3">
         <v>396000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4270,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,97 +4362,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E52" s="3">
         <v>472000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>485000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>501000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>552000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>580000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>590000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>537000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>506000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>452000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>464000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1144000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>475000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>483000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>416000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>440000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>477000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>513000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>510000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>542000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>529000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>549000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>561000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>565000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>656000</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>651000</v>
       </c>
       <c r="AC52" s="3">
         <v>651000</v>
       </c>
       <c r="AD52" s="3">
+        <v>651000</v>
+      </c>
+      <c r="AE52" s="3">
         <v>685000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>589000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,97 +4546,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3980000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3961000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4041000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4149000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4418000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4474000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4529000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4865000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5351000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5378000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5598000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5614000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5745000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5865000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6454000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7311000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7343000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7353000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7471000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6166000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6472000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6359000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6390000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6323000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5397000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5412000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5435000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>5540000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>5881000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4674,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,97 +4708,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>818000</v>
+      </c>
+      <c r="E57" s="3">
         <v>864000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>903000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>821000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>853000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>917000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>975000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>950000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>863000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>979000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>959000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>857000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1038000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>991000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1006000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1026000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1037000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1089000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1098000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1110000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1085000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1066000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>969000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>892000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>889000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>873000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>835000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>893000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>886000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4676,444 +4810,459 @@
         <v>9000</v>
       </c>
       <c r="E58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F58" s="3">
         <v>12000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>16000</v>
       </c>
       <c r="G58" s="3">
         <v>16000</v>
       </c>
       <c r="H58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I58" s="3">
         <v>17000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>20000</v>
       </c>
       <c r="K58" s="3">
         <v>20000</v>
       </c>
       <c r="L58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="M58" s="3">
         <v>22000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>104000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>841000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>842000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>837000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>841000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>95000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>92000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>97000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>93000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>96000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>17000</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>28000</v>
       </c>
       <c r="AC58" s="3">
         <v>28000</v>
       </c>
       <c r="AD58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="AE58" s="3">
         <v>29000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>933000</v>
+      </c>
+      <c r="E59" s="3">
         <v>909000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>930000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1022000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1024000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>969000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>973000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1295000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1298000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1099000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1147000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1556000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1228000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1114000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1235000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1227000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1277000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1255000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1294000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>980000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1051000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>957000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1044000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1058000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>952000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>926000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>983000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1109000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1408000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1782000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1845000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1859000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1893000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1903000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1966000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2265000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2181000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2129000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2093000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2287000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2135000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2345000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3094000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3156000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3181000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3233000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2185000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2228000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2120000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2106000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2046000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1858000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1827000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1846000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2031000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2322000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E61" s="3">
         <v>172000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>210000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>172000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>175000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>177000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>181000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>228000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>333000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>337000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>344000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>354000</v>
       </c>
       <c r="O61" s="3">
         <v>354000</v>
       </c>
       <c r="P61" s="3">
+        <v>354000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>642000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>548000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>575000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>593000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>618000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>632000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1444000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1646000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1668000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1688000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1712000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1046000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1134000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1145000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1156000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1163000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E62" s="3">
         <v>846000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>838000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>831000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>851000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>881000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>890000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>934000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>975000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1165000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1287000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1309000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1371000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1426000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1469000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1467000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1472000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1500000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>411000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>401000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>415000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>421000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>427000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>451000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>476000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>490000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>501000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>547000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5350,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5290,8 +5442,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,97 +5534,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2825000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2893000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2862000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2919000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2961000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3037000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3427000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3489000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3537000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3638000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3734000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3950000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4148000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4319000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5138000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5216000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5271000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5365000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4040000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4275000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4203000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4233000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4203000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3355000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3437000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3481000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3688000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>4032000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5662,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5752,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +5844,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5936,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,97 +6028,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-275000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-344000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-379000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-451000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-468000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-535000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-562000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-617000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-343000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-444000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-356000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-409000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-427000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-484000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-45000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-89000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-144000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-204000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-180000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-173000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-160000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-220000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-236000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-273000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-221000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-314000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-338000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-453000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-682000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6212,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6304,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,97 +6396,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1155000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1161000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1148000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1287000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1499000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1513000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1492000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1438000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1862000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1841000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1960000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1880000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1795000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1717000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2135000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2173000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2127000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2082000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2106000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2126000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2197000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2156000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2157000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2120000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2042000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1975000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1954000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1852000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1849000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6580,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44828</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44737</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44464</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44282</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E81" s="3">
         <v>34000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>72000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>67000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>55000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-274000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>101000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-205000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>53000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>57000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-394000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>55000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-24000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-14000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>60000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>16000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>41000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-52000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>86000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>27000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>158000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>229000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,40 +6805,41 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E83" s="3">
         <v>29000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>34000</v>
       </c>
       <c r="I83" s="3">
         <v>34000</v>
       </c>
       <c r="J83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K83" s="3">
         <v>36000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>46000</v>
       </c>
       <c r="N83" s="3">
         <v>46000</v>
@@ -6649,55 +6848,58 @@
         <v>46000</v>
       </c>
       <c r="P83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>97000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>49000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>49000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>50000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>44000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>47000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>51000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>43000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>37000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>39000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>40000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>41000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6987,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7079,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7171,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7263,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7355,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>157000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>158000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>163000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-114000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>171000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>86000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>309000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>180000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>188000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>152000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>212000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-58000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>60000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>61000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>304000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>45000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>217000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>40000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>282000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>34000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>102000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>36000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,97 +7483,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-14000</v>
       </c>
       <c r="O91" s="3">
         <v>-14000</v>
       </c>
       <c r="P91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-46000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-66000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-47000</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-37000</v>
       </c>
       <c r="Y91" s="3">
         <v>-37000</v>
       </c>
       <c r="Z91" s="3">
-        <v>0</v>
+        <v>-37000</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>13000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-25000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>31000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7665,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7757,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E94" s="3">
         <v>77000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-31000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>53000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-33000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>762000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>776000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>23000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-61000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-52000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-68000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-76000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-36000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-899000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-154000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>23000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-71000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-93000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-24000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,8 +7885,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7694,28 +7928,28 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-13000</v>
       </c>
       <c r="R96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="S96" s="3">
         <v>-14000</v>
       </c>
       <c r="T96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-13000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-14000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-14000</v>
       </c>
       <c r="X96" s="3">
         <v>-14000</v>
@@ -7727,7 +7961,7 @@
         <v>-14000</v>
       </c>
       <c r="AA96" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="AB96" s="3">
         <v>-13000</v>
@@ -7741,8 +7975,11 @@
       <c r="AE96" s="3">
         <v>-13000</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-13000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8067,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8159,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,271 +8251,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-78000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-185000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-204000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-77000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-64000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-291000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-85000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-53000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-30000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-316000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-872000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-808000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-67000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-38000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-43000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-64000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-255000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-52000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-66000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>672000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-127000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-42000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-38000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-69000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-338000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>2000</v>
       </c>
       <c r="U101" s="3">
         <v>2000</v>
       </c>
       <c r="V101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W101" s="3">
         <v>-5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>3000</v>
       </c>
       <c r="AB101" s="3">
         <v>3000</v>
       </c>
       <c r="AC101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AD101" s="3">
         <v>2000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-10000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-70000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>57000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-140000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-216000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>62000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-62000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>24000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>64000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>144000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>110000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>144000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-160000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-54000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-267000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>177000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-27000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>138000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-188000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>18000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-136000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-175000</v>
       </c>
     </row>
